--- a/data/raw data/raw data.xlsx
+++ b/data/raw data/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/GitHub/drug_pricing/data/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F6FB2-1F90-D94C-808D-81AD03239015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA50DB-880D-9F44-9C34-056B52855820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2650,9 +2650,6 @@
     <t>Actemra2</t>
   </si>
   <si>
-    <t>Actemra1+Actemra2</t>
-  </si>
-  <si>
     <t>Adempas1+Adempas2</t>
   </si>
   <si>
@@ -4001,6 +3998,9 @@
   </si>
   <si>
     <t>Revenue  Yervoy  U.S.</t>
+  </si>
+  <si>
+    <t>Actemra1-Actemra2</t>
   </si>
 </sst>
 </file>
@@ -4537,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664423AB-EE62-394B-8A7E-D514EB2406D8}">
   <dimension ref="A1:AV221"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="X76" zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="AT102" sqref="AT102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4589,100 +4589,100 @@
         <v>19</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>1149</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>1150</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>1151</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>1152</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>1153</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>1154</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>1155</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="V1" s="39" t="s">
         <v>1156</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="W1" s="39" t="s">
         <v>1157</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="X1" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Z1" s="39" t="s">
         <v>1160</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AA1" s="39" t="s">
         <v>1161</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AB1" s="39" t="s">
         <v>1162</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AC1" s="39" t="s">
         <v>1163</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AD1" s="39" t="s">
         <v>1164</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AE1" s="39" t="s">
         <v>1165</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AF1" s="39" t="s">
         <v>1166</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AG1" s="39" t="s">
         <v>1167</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AH1" s="39" t="s">
         <v>1168</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AI1" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AK1" s="39" t="s">
         <v>1171</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AL1" s="39" t="s">
         <v>1172</v>
       </c>
-      <c r="AL1" s="39" t="s">
+      <c r="AM1" s="39" t="s">
         <v>1173</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AN1" s="39" t="s">
         <v>1174</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AO1" s="39" t="s">
         <v>1175</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AP1" s="39" t="s">
         <v>1176</v>
       </c>
-      <c r="AP1" s="39" t="s">
-        <v>1177</v>
-      </c>
       <c r="AQ1" s="39" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AR1" s="39" t="s">
         <v>1146</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AS1" s="39" t="s">
         <v>1147</v>
-      </c>
-      <c r="AS1" s="39" t="s">
-        <v>1148</v>
       </c>
       <c r="AT1" s="12"/>
       <c r="AU1" s="12"/>
@@ -4840,7 +4840,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>28</v>
@@ -5104,7 +5104,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>40</v>
@@ -5236,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>43</v>
@@ -5353,7 +5353,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C7" s="11">
         <v>206176301.19</v>
@@ -5368,7 +5368,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>25</v>
@@ -5491,7 +5491,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C8" s="11">
         <v>206176301.19</v>
@@ -5506,7 +5506,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>28</v>
@@ -5900,7 +5900,7 @@
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>28</v>
@@ -6024,7 +6024,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>25</v>
@@ -6156,7 +6156,7 @@
         <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>28</v>
@@ -6288,7 +6288,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>25</v>
@@ -6422,7 +6422,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>28</v>
@@ -6688,7 +6688,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>28</v>
@@ -6954,7 +6954,7 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>28</v>
@@ -7224,7 +7224,7 @@
         <v>85</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>28</v>
@@ -7494,7 +7494,7 @@
         <v>98</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>28</v>
@@ -7613,7 +7613,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C24" s="10">
         <v>389831480.56</v>
@@ -7753,7 +7753,7 @@
         <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C25" s="10">
         <v>389831480.56</v>
@@ -7768,7 +7768,7 @@
         <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>107</v>
@@ -7887,7 +7887,7 @@
         <v>102</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C26" s="10">
         <v>389831480.56</v>
@@ -7902,7 +7902,7 @@
         <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>109</v>
@@ -8036,7 +8036,7 @@
         <v>114</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>25</v>
@@ -8168,7 +8168,7 @@
         <v>114</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>28</v>
@@ -8302,7 +8302,7 @@
         <v>120</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>25</v>
@@ -8442,7 +8442,7 @@
         <v>120</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>28</v>
@@ -8988,7 +8988,7 @@
         <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>28</v>
@@ -9105,7 +9105,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E35" t="s">
         <v>137</v>
@@ -9114,7 +9114,7 @@
         <v>138</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>35</v>
@@ -9243,7 +9243,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E36" t="s">
         <v>137</v>
@@ -9252,7 +9252,7 @@
         <v>138</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>140</v>
@@ -9381,7 +9381,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E37" t="s">
         <v>137</v>
@@ -9390,7 +9390,7 @@
         <v>142</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>143</v>
@@ -9515,7 +9515,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E38" t="s">
         <v>137</v>
@@ -9524,7 +9524,7 @@
         <v>142</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>43</v>
@@ -9658,7 +9658,7 @@
         <v>114</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>25</v>
@@ -9790,7 +9790,7 @@
         <v>114</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>28</v>
@@ -10052,7 +10052,7 @@
         <v>154</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>28</v>
@@ -10182,7 +10182,7 @@
         <v>120</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>25</v>
@@ -10310,7 +10310,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>28</v>
@@ -10570,7 +10570,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>28</v>
@@ -10834,7 +10834,7 @@
         <v>33</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>140</v>
@@ -11096,7 +11096,7 @@
         <v>126</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>43</v>
@@ -11225,7 +11225,7 @@
         <v>736787563.51999998</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E51" t="s">
         <v>84</v>
@@ -11359,7 +11359,7 @@
         <v>736787563.51999998</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E52" t="s">
         <v>84</v>
@@ -11368,7 +11368,7 @@
         <v>85</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>28</v>
@@ -11636,7 +11636,7 @@
         <v>85</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>28</v>
@@ -11900,7 +11900,7 @@
         <v>154</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>28</v>
@@ -12162,7 +12162,7 @@
         <v>73</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>28</v>
@@ -12294,7 +12294,7 @@
         <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>25</v>
@@ -12428,7 +12428,7 @@
         <v>114</v>
       </c>
       <c r="G60" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>28</v>
@@ -12694,7 +12694,7 @@
         <v>142</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>28</v>
@@ -12958,7 +12958,7 @@
         <v>209</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>140</v>
@@ -13090,7 +13090,7 @@
         <v>120</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>143</v>
@@ -13218,7 +13218,7 @@
         <v>120</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>43</v>
@@ -13480,7 +13480,7 @@
         <v>85</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H68" s="22" t="s">
         <v>28</v>
@@ -13746,7 +13746,7 @@
         <v>78</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>28</v>
@@ -14150,7 +14150,7 @@
         <v>142</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>28</v>
@@ -14284,7 +14284,7 @@
         <v>120</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H74" s="22" t="s">
         <v>25</v>
@@ -14416,7 +14416,7 @@
         <v>120</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>28</v>
@@ -14548,7 +14548,7 @@
         <v>120</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>25</v>
@@ -14676,7 +14676,7 @@
         <v>120</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H77" s="22" t="s">
         <v>28</v>
@@ -14942,7 +14942,7 @@
         <v>247</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>28</v>
@@ -15080,7 +15080,7 @@
         <v>254</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>35</v>
@@ -15214,7 +15214,7 @@
         <v>254</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>140</v>
@@ -15348,7 +15348,7 @@
         <v>257</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H82" s="22" t="s">
         <v>143</v>
@@ -15486,7 +15486,7 @@
         <v>257</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H83" s="22" t="s">
         <v>43</v>
@@ -15609,7 +15609,7 @@
         <v>260</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C84" s="10">
         <v>175822575.58000001</v>
@@ -15741,7 +15741,7 @@
         <v>260</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C85" s="10">
         <v>175822575.58000001</v>
@@ -15756,7 +15756,7 @@
         <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H85" s="22" t="s">
         <v>28</v>
@@ -15888,7 +15888,7 @@
         <v>39</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H86" s="22" t="s">
         <v>25</v>
@@ -16026,7 +16026,7 @@
         <v>39</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>28</v>
@@ -16302,7 +16302,7 @@
         <v>48</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H89" s="22" t="s">
         <v>28</v>
@@ -16440,7 +16440,7 @@
         <v>277</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H90" s="22" t="s">
         <v>25</v>
@@ -16566,7 +16566,7 @@
         <v>277</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>28</v>
@@ -16692,7 +16692,7 @@
         <v>283</v>
       </c>
       <c r="G92" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H92" s="22" t="s">
         <v>25</v>
@@ -16830,7 +16830,7 @@
         <v>283</v>
       </c>
       <c r="G93" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H93" s="22" t="s">
         <v>28</v>
@@ -16968,7 +16968,7 @@
         <v>283</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H94" s="22" t="s">
         <v>28</v>
@@ -17238,7 +17238,7 @@
         <v>209</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H96" s="22" t="s">
         <v>28</v>
@@ -17504,7 +17504,7 @@
         <v>85</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H98" s="22" t="s">
         <v>140</v>
@@ -17638,7 +17638,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H99" s="22" t="s">
         <v>143</v>
@@ -17770,7 +17770,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H100" s="22" t="s">
         <v>43</v>
@@ -17902,7 +17902,7 @@
         <v>209</v>
       </c>
       <c r="G101" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H101" s="22" t="s">
         <v>25</v>
@@ -18034,7 +18034,7 @@
         <v>209</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H102" s="22" t="s">
         <v>28</v>
@@ -18157,7 +18157,7 @@
         <v>342150557.68000001</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -18285,7 +18285,7 @@
         <v>342150557.68000001</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -18294,7 +18294,7 @@
         <v>59</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H104" s="22" t="s">
         <v>28</v>
@@ -18552,7 +18552,7 @@
         <v>311</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>28</v>
@@ -18816,7 +18816,7 @@
         <v>154</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>28</v>
@@ -19086,7 +19086,7 @@
         <v>324</v>
       </c>
       <c r="G110" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>28</v>
@@ -19224,7 +19224,7 @@
         <v>324</v>
       </c>
       <c r="G111" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>28</v>
@@ -19500,7 +19500,7 @@
         <v>48</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>28</v>
@@ -19770,7 +19770,7 @@
         <v>78</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>28</v>
@@ -20038,7 +20038,7 @@
         <v>341</v>
       </c>
       <c r="G117" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>25</v>
@@ -20136,7 +20136,7 @@
         <v>341</v>
       </c>
       <c r="G118" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>28</v>
@@ -20406,7 +20406,7 @@
         <v>24</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>28</v>
@@ -20645,7 +20645,7 @@
         <v>1586591103.3</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E122" t="s">
         <v>137</v>
@@ -20654,7 +20654,7 @@
         <v>138</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>25</v>
@@ -20777,7 +20777,7 @@
         <v>1586591103.3</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E123" t="s">
         <v>137</v>
@@ -20786,7 +20786,7 @@
         <v>138</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>28</v>
@@ -20920,7 +20920,7 @@
         <v>120</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>25</v>
@@ -21050,7 +21050,7 @@
         <v>120</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>28</v>
@@ -21316,7 +21316,7 @@
         <v>48</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H127" s="22" t="s">
         <v>28</v>
@@ -21596,7 +21596,7 @@
         <v>372</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>28</v>
@@ -21876,7 +21876,7 @@
         <v>372</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>28</v>
@@ -22146,7 +22146,7 @@
         <v>24</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>28</v>
@@ -22278,7 +22278,7 @@
         <v>138</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>25</v>
@@ -22410,7 +22410,7 @@
         <v>138</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>28</v>
@@ -22675,7 +22675,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>58</v>
@@ -22813,7 +22813,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>58</v>
@@ -22822,7 +22822,7 @@
         <v>126</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H138" s="22" t="s">
         <v>28</v>
@@ -23374,7 +23374,7 @@
         <v>48</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H142" s="26" t="s">
         <v>407</v>
@@ -23512,7 +23512,7 @@
         <v>48</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H143" s="26" t="s">
         <v>409</v>
@@ -23650,7 +23650,7 @@
         <v>48</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H144" s="26" t="s">
         <v>411</v>
@@ -23788,7 +23788,7 @@
         <v>78</v>
       </c>
       <c r="G145" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H145" s="22" t="s">
         <v>25</v>
@@ -23926,7 +23926,7 @@
         <v>78</v>
       </c>
       <c r="G146" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H146" s="22" t="s">
         <v>28</v>
@@ -24066,7 +24066,7 @@
         <v>114</v>
       </c>
       <c r="G147" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H147" s="22" t="s">
         <v>25</v>
@@ -24200,7 +24200,7 @@
         <v>114</v>
       </c>
       <c r="G148" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>28</v>
@@ -24472,7 +24472,7 @@
         <v>48</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H150" s="22" t="s">
         <v>28</v>
@@ -24740,7 +24740,7 @@
         <v>428</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H152" s="22" t="s">
         <v>140</v>
@@ -24868,7 +24868,7 @@
         <v>428</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H153" s="22" t="s">
         <v>140</v>
@@ -24998,7 +24998,7 @@
         <v>428</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H154" s="22" t="s">
         <v>140</v>
@@ -25258,7 +25258,7 @@
         <v>209</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H156" s="22" t="s">
         <v>28</v>
@@ -25390,7 +25390,7 @@
         <v>120</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H157" s="22" t="s">
         <v>25</v>
@@ -25522,7 +25522,7 @@
         <v>120</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H158" s="22" t="s">
         <v>28</v>
@@ -25639,7 +25639,7 @@
         <v>444</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C159" s="11">
         <v>191618646.94999999</v>
@@ -25779,7 +25779,7 @@
         <v>444</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C160" s="11">
         <v>191618646.94999999</v>
@@ -25794,7 +25794,7 @@
         <v>209</v>
       </c>
       <c r="G160" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H160" s="22" t="s">
         <v>28</v>
@@ -25934,7 +25934,7 @@
         <v>120</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H161" s="22" t="s">
         <v>25</v>
@@ -26062,7 +26062,7 @@
         <v>120</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>28</v>
@@ -26324,7 +26324,7 @@
         <v>85</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H164" s="22" t="s">
         <v>28</v>
@@ -26458,7 +26458,7 @@
         <v>254</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H165" s="22" t="s">
         <v>25</v>
@@ -26590,7 +26590,7 @@
         <v>254</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H166" s="22" t="s">
         <v>28</v>
@@ -26854,7 +26854,7 @@
         <v>24</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H168" s="22" t="s">
         <v>28</v>
@@ -27394,7 +27394,7 @@
         <v>78</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H172" s="22" t="s">
         <v>28</v>
@@ -27517,7 +27517,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>58</v>
@@ -27643,7 +27643,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>58</v>
@@ -27652,7 +27652,7 @@
         <v>59</v>
       </c>
       <c r="G174" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H174" s="22" t="s">
         <v>28</v>
@@ -27910,7 +27910,7 @@
         <v>142</v>
       </c>
       <c r="G176" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H176" s="22" t="s">
         <v>28</v>
@@ -28180,7 +28180,7 @@
         <v>254</v>
       </c>
       <c r="G178" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H178" s="22" t="s">
         <v>25</v>
@@ -28312,7 +28312,7 @@
         <v>254</v>
       </c>
       <c r="G179" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H179" s="22" t="s">
         <v>25</v>
@@ -28444,7 +28444,7 @@
         <v>120</v>
       </c>
       <c r="G180" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H180" s="22" t="s">
         <v>25</v>
@@ -28582,7 +28582,7 @@
         <v>120</v>
       </c>
       <c r="G181" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H181" s="22" t="s">
         <v>28</v>
@@ -28858,7 +28858,7 @@
         <v>372</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H183" s="22" t="s">
         <v>28</v>
@@ -29412,7 +29412,7 @@
         <v>324</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H187" s="22" t="s">
         <v>28</v>
@@ -29552,7 +29552,7 @@
         <v>254</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H188" s="22" t="s">
         <v>25</v>
@@ -29686,7 +29686,7 @@
         <v>254</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>28</v>
@@ -29818,7 +29818,7 @@
         <v>120</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H190" s="22" t="s">
         <v>35</v>
@@ -29946,7 +29946,7 @@
         <v>120</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H191" s="22" t="s">
         <v>140</v>
@@ -30332,7 +30332,7 @@
         <v>209</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H194" s="22" t="s">
         <v>28</v>
@@ -30464,7 +30464,7 @@
         <v>254</v>
       </c>
       <c r="G195" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H195" s="22" t="s">
         <v>25</v>
@@ -30596,7 +30596,7 @@
         <v>254</v>
       </c>
       <c r="G196" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H196" s="22" t="s">
         <v>28</v>
@@ -30866,7 +30866,7 @@
         <v>372</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H198" s="22" t="s">
         <v>28</v>
@@ -31140,7 +31140,7 @@
         <v>98</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H200" s="22" t="s">
         <v>28</v>
@@ -31272,7 +31272,7 @@
         <v>209</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H201" s="22" t="s">
         <v>25</v>
@@ -31404,7 +31404,7 @@
         <v>209</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H202" s="22" t="s">
         <v>28</v>
@@ -31668,7 +31668,7 @@
         <v>142</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H204" s="22" t="s">
         <v>28</v>
@@ -31932,7 +31932,7 @@
         <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H206" s="22" t="s">
         <v>140</v>
@@ -32064,7 +32064,7 @@
         <v>120</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H207" s="22" t="s">
         <v>43</v>
@@ -32324,7 +32324,7 @@
         <v>142</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H209" s="22" t="s">
         <v>28</v>
@@ -32456,7 +32456,7 @@
         <v>114</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H210" s="22" t="s">
         <v>25</v>
@@ -32588,7 +32588,7 @@
         <v>114</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H211" s="22" t="s">
         <v>28</v>
@@ -32722,7 +32722,7 @@
         <v>142</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H212" s="22" t="s">
         <v>140</v>
@@ -32856,7 +32856,7 @@
         <v>311</v>
       </c>
       <c r="G213" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H213" s="22" t="s">
         <v>143</v>
@@ -32988,7 +32988,7 @@
         <v>311</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H214" s="22" t="s">
         <v>43</v>
@@ -33256,7 +33256,7 @@
         <v>573</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H216" s="22" t="s">
         <v>43</v>
@@ -33394,7 +33394,7 @@
         <v>573</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H217" s="22" t="s">
         <v>43</v>
@@ -33523,7 +33523,7 @@
         <v>365961395.01999998</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E218" t="s">
         <v>137</v>
@@ -33532,7 +33532,7 @@
         <v>138</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H218" s="22" t="s">
         <v>25</v>
@@ -33655,7 +33655,7 @@
         <v>365961395.01999998</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E219" t="s">
         <v>137</v>
@@ -33664,7 +33664,7 @@
         <v>138</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H219" s="22" t="s">
         <v>28</v>
@@ -33815,8 +33815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CFFDB-1765-1946-A5CD-678844AE2468}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33867,7 +33867,7 @@
         <v>584</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>871</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -33878,7 +33878,7 @@
         <v>585</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -33889,7 +33889,7 @@
         <v>586</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -33900,7 +33900,7 @@
         <v>587</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -33911,7 +33911,7 @@
         <v>588</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -33922,7 +33922,7 @@
         <v>589</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -33933,7 +33933,7 @@
         <v>590</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -33944,7 +33944,7 @@
         <v>591</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -33955,7 +33955,7 @@
         <v>592</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -33966,7 +33966,7 @@
         <v>593</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -33977,7 +33977,7 @@
         <v>594</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -33988,7 +33988,7 @@
         <v>595</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -33999,7 +33999,7 @@
         <v>596</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -34010,7 +34010,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -34021,7 +34021,7 @@
         <v>598</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -34032,7 +34032,7 @@
         <v>599</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -34043,7 +34043,7 @@
         <v>600</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -34054,7 +34054,7 @@
         <v>601</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -34065,7 +34065,7 @@
         <v>602</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -34076,7 +34076,7 @@
         <v>603</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -34087,7 +34087,7 @@
         <v>604</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -34098,7 +34098,7 @@
         <v>605</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -34109,7 +34109,7 @@
         <v>606</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -34120,7 +34120,7 @@
         <v>607</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -34131,7 +34131,7 @@
         <v>608</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -34142,7 +34142,7 @@
         <v>609</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -34153,7 +34153,7 @@
         <v>610</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -34164,7 +34164,7 @@
         <v>611</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -34175,7 +34175,7 @@
         <v>612</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -34186,7 +34186,7 @@
         <v>613</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -34197,7 +34197,7 @@
         <v>614</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -34208,7 +34208,7 @@
         <v>615</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -34219,7 +34219,7 @@
         <v>616</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -34230,7 +34230,7 @@
         <v>617</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -34241,7 +34241,7 @@
         <v>618</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -34252,7 +34252,7 @@
         <v>619</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -34263,7 +34263,7 @@
         <v>620</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -34274,7 +34274,7 @@
         <v>621</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -34285,7 +34285,7 @@
         <v>622</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -34296,7 +34296,7 @@
         <v>623</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -34307,7 +34307,7 @@
         <v>624</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -34318,7 +34318,7 @@
         <v>625</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -34329,7 +34329,7 @@
         <v>626</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -34340,7 +34340,7 @@
         <v>627</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -34351,7 +34351,7 @@
         <v>628</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -34362,7 +34362,7 @@
         <v>629</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -34373,7 +34373,7 @@
         <v>630</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -34384,7 +34384,7 @@
         <v>631</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -34395,7 +34395,7 @@
         <v>632</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -34406,7 +34406,7 @@
         <v>633</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -34417,7 +34417,7 @@
         <v>634</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -34428,7 +34428,7 @@
         <v>635</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -34439,7 +34439,7 @@
         <v>636</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -34450,7 +34450,7 @@
         <v>637</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -34461,7 +34461,7 @@
         <v>638</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -34472,7 +34472,7 @@
         <v>639</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -34483,7 +34483,7 @@
         <v>640</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -34494,7 +34494,7 @@
         <v>641</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -34505,7 +34505,7 @@
         <v>642</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -34516,7 +34516,7 @@
         <v>643</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -34527,7 +34527,7 @@
         <v>644</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -34538,7 +34538,7 @@
         <v>645</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -34549,7 +34549,7 @@
         <v>646</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -34560,7 +34560,7 @@
         <v>647</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -34571,7 +34571,7 @@
         <v>648</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -34582,7 +34582,7 @@
         <v>649</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -34593,7 +34593,7 @@
         <v>650</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -34604,7 +34604,7 @@
         <v>651</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -34615,7 +34615,7 @@
         <v>652</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -34626,7 +34626,7 @@
         <v>653</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -34637,7 +34637,7 @@
         <v>654</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -34648,7 +34648,7 @@
         <v>655</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -34659,7 +34659,7 @@
         <v>656</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -34670,7 +34670,7 @@
         <v>657</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -34681,7 +34681,7 @@
         <v>658</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -34692,7 +34692,7 @@
         <v>659</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -34703,7 +34703,7 @@
         <v>660</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -34714,7 +34714,7 @@
         <v>661</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -34725,7 +34725,7 @@
         <v>662</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -34736,7 +34736,7 @@
         <v>663</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -34747,7 +34747,7 @@
         <v>664</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -34758,7 +34758,7 @@
         <v>665</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -34769,7 +34769,7 @@
         <v>666</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -34780,7 +34780,7 @@
         <v>667</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -34791,7 +34791,7 @@
         <v>668</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -34802,7 +34802,7 @@
         <v>669</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -34813,7 +34813,7 @@
         <v>670</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -34824,7 +34824,7 @@
         <v>671</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -34835,7 +34835,7 @@
         <v>672</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -34846,7 +34846,7 @@
         <v>673</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -34857,7 +34857,7 @@
         <v>674</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -34868,7 +34868,7 @@
         <v>675</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -34879,7 +34879,7 @@
         <v>676</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -34890,7 +34890,7 @@
         <v>677</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -34901,7 +34901,7 @@
         <v>678</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -34912,7 +34912,7 @@
         <v>679</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -34923,7 +34923,7 @@
         <v>680</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -34934,7 +34934,7 @@
         <v>681</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -34945,7 +34945,7 @@
         <v>682</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -34956,7 +34956,7 @@
         <v>683</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -34967,7 +34967,7 @@
         <v>684</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -34978,7 +34978,7 @@
         <v>685</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -34989,7 +34989,7 @@
         <v>686</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -35000,7 +35000,7 @@
         <v>687</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -35011,7 +35011,7 @@
         <v>688</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -35022,7 +35022,7 @@
         <v>689</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -35033,7 +35033,7 @@
         <v>690</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -35044,7 +35044,7 @@
         <v>691</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -35055,7 +35055,7 @@
         <v>692</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -35066,7 +35066,7 @@
         <v>693</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -35077,7 +35077,7 @@
         <v>694</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -35088,7 +35088,7 @@
         <v>695</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -35099,7 +35099,7 @@
         <v>696</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -35110,7 +35110,7 @@
         <v>697</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -35121,7 +35121,7 @@
         <v>698</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -35132,7 +35132,7 @@
         <v>699</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -35143,7 +35143,7 @@
         <v>700</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -35154,7 +35154,7 @@
         <v>701</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -35165,7 +35165,7 @@
         <v>702</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -35176,7 +35176,7 @@
         <v>703</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -35187,7 +35187,7 @@
         <v>704</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -35198,7 +35198,7 @@
         <v>705</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -35209,7 +35209,7 @@
         <v>706</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -35220,7 +35220,7 @@
         <v>707</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -35231,7 +35231,7 @@
         <v>708</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -35242,7 +35242,7 @@
         <v>709</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -35253,7 +35253,7 @@
         <v>710</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -35264,7 +35264,7 @@
         <v>711</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -35275,7 +35275,7 @@
         <v>712</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -35286,7 +35286,7 @@
         <v>713</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -35297,7 +35297,7 @@
         <v>714</v>
       </c>
       <c r="C134" s="38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -35308,7 +35308,7 @@
         <v>715</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -35319,7 +35319,7 @@
         <v>716</v>
       </c>
       <c r="C136" s="38" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -35330,7 +35330,7 @@
         <v>717</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -35341,7 +35341,7 @@
         <v>718</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -35352,7 +35352,7 @@
         <v>719</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -35363,7 +35363,7 @@
         <v>720</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -35374,7 +35374,7 @@
         <v>721</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -35385,7 +35385,7 @@
         <v>722</v>
       </c>
       <c r="C142" s="38" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -35396,7 +35396,7 @@
         <v>723</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -35407,7 +35407,7 @@
         <v>724</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -35418,7 +35418,7 @@
         <v>725</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -35429,7 +35429,7 @@
         <v>726</v>
       </c>
       <c r="C146" s="38" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -35440,7 +35440,7 @@
         <v>727</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -35451,7 +35451,7 @@
         <v>728</v>
       </c>
       <c r="C148" s="38" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -35462,7 +35462,7 @@
         <v>729</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -35473,7 +35473,7 @@
         <v>730</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -35484,7 +35484,7 @@
         <v>731</v>
       </c>
       <c r="C151" s="38" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -35495,7 +35495,7 @@
         <v>732</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -35506,7 +35506,7 @@
         <v>733</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -35517,7 +35517,7 @@
         <v>734</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -35528,7 +35528,7 @@
         <v>735</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -35539,7 +35539,7 @@
         <v>736</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -35550,7 +35550,7 @@
         <v>737</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -35561,7 +35561,7 @@
         <v>738</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -35572,7 +35572,7 @@
         <v>739</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -35583,7 +35583,7 @@
         <v>740</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -35594,7 +35594,7 @@
         <v>741</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -35605,7 +35605,7 @@
         <v>742</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -35616,7 +35616,7 @@
         <v>743</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -35627,7 +35627,7 @@
         <v>744</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -35638,7 +35638,7 @@
         <v>745</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -35649,7 +35649,7 @@
         <v>746</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -35660,7 +35660,7 @@
         <v>747</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -35671,7 +35671,7 @@
         <v>748</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -35682,7 +35682,7 @@
         <v>749</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -35693,7 +35693,7 @@
         <v>750</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -35704,7 +35704,7 @@
         <v>751</v>
       </c>
       <c r="C171" s="38" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -35715,7 +35715,7 @@
         <v>752</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -35726,7 +35726,7 @@
         <v>753</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -35737,7 +35737,7 @@
         <v>754</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -35748,7 +35748,7 @@
         <v>755</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -35759,7 +35759,7 @@
         <v>756</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -35770,7 +35770,7 @@
         <v>757</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -35781,7 +35781,7 @@
         <v>758</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -35792,7 +35792,7 @@
         <v>759</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -35803,7 +35803,7 @@
         <v>760</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -35814,7 +35814,7 @@
         <v>761</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -35825,7 +35825,7 @@
         <v>762</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -35836,7 +35836,7 @@
         <v>763</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -35847,7 +35847,7 @@
         <v>764</v>
       </c>
       <c r="C184" s="38" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -35858,7 +35858,7 @@
         <v>765</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -35869,7 +35869,7 @@
         <v>766</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -35880,7 +35880,7 @@
         <v>767</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -35891,7 +35891,7 @@
         <v>768</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -35902,7 +35902,7 @@
         <v>769</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -35913,7 +35913,7 @@
         <v>770</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -35924,7 +35924,7 @@
         <v>771</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -35935,7 +35935,7 @@
         <v>772</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -35946,7 +35946,7 @@
         <v>773</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -35957,7 +35957,7 @@
         <v>774</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -35968,7 +35968,7 @@
         <v>775</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -35979,7 +35979,7 @@
         <v>776</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -35990,7 +35990,7 @@
         <v>777</v>
       </c>
       <c r="C197" s="38" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -36001,7 +36001,7 @@
         <v>778</v>
       </c>
       <c r="C198" s="38" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -36012,7 +36012,7 @@
         <v>779</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -36023,7 +36023,7 @@
         <v>780</v>
       </c>
       <c r="C200" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -36034,7 +36034,7 @@
         <v>781</v>
       </c>
       <c r="C201" s="38" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -36045,7 +36045,7 @@
         <v>782</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -36056,7 +36056,7 @@
         <v>783</v>
       </c>
       <c r="C203" s="38" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -36067,7 +36067,7 @@
         <v>784</v>
       </c>
       <c r="C204" s="38" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -36078,7 +36078,7 @@
         <v>785</v>
       </c>
       <c r="C205" s="38" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -36089,7 +36089,7 @@
         <v>786</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -36100,7 +36100,7 @@
         <v>787</v>
       </c>
       <c r="C207" s="38" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -36111,7 +36111,7 @@
         <v>788</v>
       </c>
       <c r="C208" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -36122,7 +36122,7 @@
         <v>789</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -36133,7 +36133,7 @@
         <v>790</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -36144,7 +36144,7 @@
         <v>791</v>
       </c>
       <c r="C211" s="38" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -36155,7 +36155,7 @@
         <v>792</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -36166,7 +36166,7 @@
         <v>793</v>
       </c>
       <c r="C213" s="38" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -36177,7 +36177,7 @@
         <v>794</v>
       </c>
       <c r="C214" s="38" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -36188,7 +36188,7 @@
         <v>795</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -36199,7 +36199,7 @@
         <v>796</v>
       </c>
       <c r="C216" s="38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -36210,7 +36210,7 @@
         <v>797</v>
       </c>
       <c r="C217" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -36221,7 +36221,7 @@
         <v>798</v>
       </c>
       <c r="C218" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -36232,7 +36232,7 @@
         <v>799</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -36243,7 +36243,7 @@
         <v>800</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -36254,7 +36254,7 @@
         <v>801</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -36265,7 +36265,7 @@
         <v>802</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -36276,7 +36276,7 @@
         <v>803</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -36287,7 +36287,7 @@
         <v>804</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -36298,7 +36298,7 @@
         <v>805</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -36309,7 +36309,7 @@
         <v>806</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -36320,7 +36320,7 @@
         <v>807</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -36331,7 +36331,7 @@
         <v>808</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -36342,7 +36342,7 @@
         <v>809</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -36353,7 +36353,7 @@
         <v>810</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -36364,7 +36364,7 @@
         <v>811</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -36375,7 +36375,7 @@
         <v>812</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -36386,7 +36386,7 @@
         <v>813</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -36397,7 +36397,7 @@
         <v>814</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -36408,7 +36408,7 @@
         <v>815</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -36419,7 +36419,7 @@
         <v>816</v>
       </c>
       <c r="C236" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -36430,7 +36430,7 @@
         <v>817</v>
       </c>
       <c r="C237" s="38" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -36441,7 +36441,7 @@
         <v>818</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -36452,7 +36452,7 @@
         <v>819</v>
       </c>
       <c r="C239" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -36463,7 +36463,7 @@
         <v>820</v>
       </c>
       <c r="C240" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -36474,7 +36474,7 @@
         <v>821</v>
       </c>
       <c r="C241" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -36485,7 +36485,7 @@
         <v>822</v>
       </c>
       <c r="C242" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -36496,7 +36496,7 @@
         <v>823</v>
       </c>
       <c r="C243" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -36507,7 +36507,7 @@
         <v>824</v>
       </c>
       <c r="C244" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -36518,7 +36518,7 @@
         <v>825</v>
       </c>
       <c r="C245" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -36529,7 +36529,7 @@
         <v>826</v>
       </c>
       <c r="C246" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -36540,7 +36540,7 @@
         <v>827</v>
       </c>
       <c r="C247" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -36551,7 +36551,7 @@
         <v>828</v>
       </c>
       <c r="C248" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -36562,7 +36562,7 @@
         <v>829</v>
       </c>
       <c r="C249" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -36573,7 +36573,7 @@
         <v>830</v>
       </c>
       <c r="C250" s="38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -36584,7 +36584,7 @@
         <v>831</v>
       </c>
       <c r="C251" s="38" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -36595,7 +36595,7 @@
         <v>832</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -36606,7 +36606,7 @@
         <v>833</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -36617,7 +36617,7 @@
         <v>834</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -36628,7 +36628,7 @@
         <v>835</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -36639,7 +36639,7 @@
         <v>836</v>
       </c>
       <c r="C256" s="38" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -36650,7 +36650,7 @@
         <v>837</v>
       </c>
       <c r="C257" s="38" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -36661,7 +36661,7 @@
         <v>838</v>
       </c>
       <c r="C258" s="38" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -36672,7 +36672,7 @@
         <v>839</v>
       </c>
       <c r="C259" s="38" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -36683,7 +36683,7 @@
         <v>840</v>
       </c>
       <c r="C260" s="38" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -36694,7 +36694,7 @@
         <v>841</v>
       </c>
       <c r="C261" s="38" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -36705,7 +36705,7 @@
         <v>842</v>
       </c>
       <c r="C262" s="38" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -36716,7 +36716,7 @@
         <v>843</v>
       </c>
       <c r="C263" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -36727,7 +36727,7 @@
         <v>844</v>
       </c>
       <c r="C264" s="38" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -36738,7 +36738,7 @@
         <v>845</v>
       </c>
       <c r="C265" s="38" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -36749,7 +36749,7 @@
         <v>846</v>
       </c>
       <c r="C266" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -36760,7 +36760,7 @@
         <v>847</v>
       </c>
       <c r="C267" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -36771,7 +36771,7 @@
         <v>848</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -36782,7 +36782,7 @@
         <v>849</v>
       </c>
       <c r="C269" s="38" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -36793,7 +36793,7 @@
         <v>850</v>
       </c>
       <c r="C270" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -36804,7 +36804,7 @@
         <v>851</v>
       </c>
       <c r="C271" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -36815,7 +36815,7 @@
         <v>852</v>
       </c>
       <c r="C272" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -36826,7 +36826,7 @@
         <v>853</v>
       </c>
       <c r="C273" s="38" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -36837,7 +36837,7 @@
         <v>854</v>
       </c>
       <c r="C274" s="38" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -36848,7 +36848,7 @@
         <v>855</v>
       </c>
       <c r="C275" s="38" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -36859,7 +36859,7 @@
         <v>856</v>
       </c>
       <c r="C276" s="38" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -36870,7 +36870,7 @@
         <v>857</v>
       </c>
       <c r="C277" s="38" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -36881,7 +36881,7 @@
         <v>858</v>
       </c>
       <c r="C278" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -36892,7 +36892,7 @@
         <v>859</v>
       </c>
       <c r="C279" s="38" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -36903,7 +36903,7 @@
         <v>860</v>
       </c>
       <c r="C280" s="38" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -36914,7 +36914,7 @@
         <v>861</v>
       </c>
       <c r="C281" s="38" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -36925,7 +36925,7 @@
         <v>862</v>
       </c>
       <c r="C282" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -36936,7 +36936,7 @@
         <v>863</v>
       </c>
       <c r="C283" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw data/raw data.xlsx
+++ b/data/raw data/raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/GitHub/drug_pricing/data/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA50DB-880D-9F44-9C34-056B52855820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BDDAA9-55E4-154D-8E30-CC970913E546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="1321">
   <si>
     <t>categories</t>
   </si>
@@ -1882,15 +1882,6 @@
     <t>Cimzia Ex-US</t>
   </si>
   <si>
-    <t>Cometriq WW</t>
-  </si>
-  <si>
-    <t>Cometriq US</t>
-  </si>
-  <si>
-    <t>Cometriq Ex-US</t>
-  </si>
-  <si>
     <t>Cosentyx WW</t>
   </si>
   <si>
@@ -2635,9 +2626,6 @@
     <t>formula</t>
   </si>
   <si>
-    <t>Cometriq</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trintellix/Brintellix </t>
   </si>
   <si>
@@ -4001,6 +3989,15 @@
   </si>
   <si>
     <t>Actemra1-Actemra2</t>
+  </si>
+  <si>
+    <t>Cabometyx/Cometriq WW</t>
+  </si>
+  <si>
+    <t>Cabometyx/Cometriq US</t>
+  </si>
+  <si>
+    <t>Cabometyx/Cometriq Ex-US</t>
   </si>
 </sst>
 </file>
@@ -4013,7 +4010,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4073,6 +4070,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4096,7 +4100,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4194,6 +4198,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4537,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664423AB-EE62-394B-8A7E-D514EB2406D8}">
   <dimension ref="A1:AV221"/>
   <sheetViews>
-    <sheetView topLeftCell="X76" zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="AT102" sqref="AT102"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4589,100 +4596,100 @@
         <v>19</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>1147</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>1148</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>1149</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>1150</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>1151</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="V1" s="39" t="s">
         <v>1152</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="W1" s="39" t="s">
         <v>1153</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="X1" s="39" t="s">
         <v>1154</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="Y1" s="39" t="s">
         <v>1155</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="Z1" s="39" t="s">
         <v>1156</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="AA1" s="39" t="s">
         <v>1157</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="AB1" s="39" t="s">
         <v>1158</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="AC1" s="39" t="s">
         <v>1159</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AD1" s="39" t="s">
         <v>1160</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AE1" s="39" t="s">
         <v>1161</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AF1" s="39" t="s">
         <v>1162</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AG1" s="39" t="s">
         <v>1163</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AH1" s="39" t="s">
         <v>1164</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AI1" s="39" t="s">
         <v>1165</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>1166</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AK1" s="39" t="s">
         <v>1167</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AL1" s="39" t="s">
         <v>1168</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AM1" s="39" t="s">
         <v>1169</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AN1" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AO1" s="39" t="s">
         <v>1171</v>
       </c>
-      <c r="AL1" s="39" t="s">
+      <c r="AP1" s="39" t="s">
         <v>1172</v>
       </c>
-      <c r="AM1" s="39" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AN1" s="39" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AO1" s="39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AP1" s="39" t="s">
-        <v>1176</v>
-      </c>
       <c r="AQ1" s="39" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="AR1" s="39" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="AS1" s="39" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="AT1" s="12"/>
       <c r="AU1" s="12"/>
@@ -4840,7 +4847,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>28</v>
@@ -5104,7 +5111,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>40</v>
@@ -5236,7 +5243,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>43</v>
@@ -5353,7 +5360,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C7" s="11">
         <v>206176301.19</v>
@@ -5368,7 +5375,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>25</v>
@@ -5491,7 +5498,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C8" s="11">
         <v>206176301.19</v>
@@ -5506,7 +5513,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>28</v>
@@ -5900,7 +5907,7 @@
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>28</v>
@@ -6024,7 +6031,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>25</v>
@@ -6156,7 +6163,7 @@
         <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>28</v>
@@ -6288,7 +6295,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>25</v>
@@ -6422,7 +6429,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>28</v>
@@ -6688,7 +6695,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>28</v>
@@ -6954,7 +6961,7 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>28</v>
@@ -7224,7 +7231,7 @@
         <v>85</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>28</v>
@@ -7494,7 +7501,7 @@
         <v>98</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>28</v>
@@ -7613,7 +7620,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C24" s="10">
         <v>389831480.56</v>
@@ -7753,7 +7760,7 @@
         <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C25" s="10">
         <v>389831480.56</v>
@@ -7768,7 +7775,7 @@
         <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>107</v>
@@ -7887,7 +7894,7 @@
         <v>102</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C26" s="10">
         <v>389831480.56</v>
@@ -7902,7 +7909,7 @@
         <v>104</v>
       </c>
       <c r="G26" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>109</v>
@@ -8036,7 +8043,7 @@
         <v>114</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>25</v>
@@ -8168,7 +8175,7 @@
         <v>114</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>28</v>
@@ -8302,7 +8309,7 @@
         <v>120</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>25</v>
@@ -8442,7 +8449,7 @@
         <v>120</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>28</v>
@@ -8988,7 +8995,7 @@
         <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>28</v>
@@ -9105,7 +9112,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E35" t="s">
         <v>137</v>
@@ -9114,7 +9121,7 @@
         <v>138</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>35</v>
@@ -9243,7 +9250,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E36" t="s">
         <v>137</v>
@@ -9252,7 +9259,7 @@
         <v>138</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>140</v>
@@ -9381,7 +9388,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E37" t="s">
         <v>137</v>
@@ -9390,7 +9397,7 @@
         <v>142</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>143</v>
@@ -9515,7 +9522,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E38" t="s">
         <v>137</v>
@@ -9524,7 +9531,7 @@
         <v>142</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>43</v>
@@ -9658,7 +9665,7 @@
         <v>114</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>25</v>
@@ -9790,7 +9797,7 @@
         <v>114</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>28</v>
@@ -10052,7 +10059,7 @@
         <v>154</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>28</v>
@@ -10182,7 +10189,7 @@
         <v>120</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>25</v>
@@ -10310,7 +10317,7 @@
         <v>120</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>28</v>
@@ -10570,7 +10577,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>28</v>
@@ -10834,7 +10841,7 @@
         <v>33</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>140</v>
@@ -11096,7 +11103,7 @@
         <v>126</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>43</v>
@@ -11225,7 +11232,7 @@
         <v>736787563.51999998</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E51" t="s">
         <v>84</v>
@@ -11359,7 +11366,7 @@
         <v>736787563.51999998</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E52" t="s">
         <v>84</v>
@@ -11368,7 +11375,7 @@
         <v>85</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>28</v>
@@ -11636,7 +11643,7 @@
         <v>85</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>28</v>
@@ -11900,7 +11907,7 @@
         <v>154</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>28</v>
@@ -12162,7 +12169,7 @@
         <v>73</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>28</v>
@@ -12294,7 +12301,7 @@
         <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>25</v>
@@ -12428,7 +12435,7 @@
         <v>114</v>
       </c>
       <c r="G60" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>28</v>
@@ -12694,7 +12701,7 @@
         <v>142</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>28</v>
@@ -12958,7 +12965,7 @@
         <v>209</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>140</v>
@@ -13090,7 +13097,7 @@
         <v>120</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>143</v>
@@ -13218,7 +13225,7 @@
         <v>120</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>43</v>
@@ -13480,7 +13487,7 @@
         <v>85</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="H68" s="22" t="s">
         <v>28</v>
@@ -13746,7 +13753,7 @@
         <v>78</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>28</v>
@@ -14150,7 +14157,7 @@
         <v>142</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>28</v>
@@ -14284,7 +14291,7 @@
         <v>120</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="H74" s="22" t="s">
         <v>25</v>
@@ -14416,7 +14423,7 @@
         <v>120</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>28</v>
@@ -14548,7 +14555,7 @@
         <v>120</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>25</v>
@@ -14676,7 +14683,7 @@
         <v>120</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="H77" s="22" t="s">
         <v>28</v>
@@ -14942,7 +14949,7 @@
         <v>247</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>28</v>
@@ -15080,7 +15087,7 @@
         <v>254</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>35</v>
@@ -15214,7 +15221,7 @@
         <v>254</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>140</v>
@@ -15348,7 +15355,7 @@
         <v>257</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="H82" s="22" t="s">
         <v>143</v>
@@ -15486,7 +15493,7 @@
         <v>257</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="H83" s="22" t="s">
         <v>43</v>
@@ -15609,7 +15616,7 @@
         <v>260</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C84" s="10">
         <v>175822575.58000001</v>
@@ -15741,7 +15748,7 @@
         <v>260</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C85" s="10">
         <v>175822575.58000001</v>
@@ -15756,7 +15763,7 @@
         <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H85" s="22" t="s">
         <v>28</v>
@@ -15888,7 +15895,7 @@
         <v>39</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="H86" s="22" t="s">
         <v>25</v>
@@ -16026,7 +16033,7 @@
         <v>39</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>28</v>
@@ -16302,7 +16309,7 @@
         <v>48</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="H89" s="22" t="s">
         <v>28</v>
@@ -16440,7 +16447,7 @@
         <v>277</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="H90" s="22" t="s">
         <v>25</v>
@@ -16566,7 +16573,7 @@
         <v>277</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>28</v>
@@ -16692,7 +16699,7 @@
         <v>283</v>
       </c>
       <c r="G92" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="H92" s="22" t="s">
         <v>25</v>
@@ -16830,7 +16837,7 @@
         <v>283</v>
       </c>
       <c r="G93" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="H93" s="22" t="s">
         <v>28</v>
@@ -16968,7 +16975,7 @@
         <v>283</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="H94" s="22" t="s">
         <v>28</v>
@@ -17238,7 +17245,7 @@
         <v>209</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="H96" s="22" t="s">
         <v>28</v>
@@ -17504,7 +17511,7 @@
         <v>85</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="H98" s="22" t="s">
         <v>140</v>
@@ -17638,7 +17645,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="H99" s="22" t="s">
         <v>143</v>
@@ -17770,7 +17777,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="H100" s="22" t="s">
         <v>43</v>
@@ -17902,7 +17909,7 @@
         <v>209</v>
       </c>
       <c r="G101" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="H101" s="22" t="s">
         <v>25</v>
@@ -18034,7 +18041,7 @@
         <v>209</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="H102" s="22" t="s">
         <v>28</v>
@@ -18157,7 +18164,7 @@
         <v>342150557.68000001</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -18285,7 +18292,7 @@
         <v>342150557.68000001</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -18294,7 +18301,7 @@
         <v>59</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="H104" s="22" t="s">
         <v>28</v>
@@ -18552,7 +18559,7 @@
         <v>311</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>28</v>
@@ -18816,7 +18823,7 @@
         <v>154</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>28</v>
@@ -19086,7 +19093,7 @@
         <v>324</v>
       </c>
       <c r="G110" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>28</v>
@@ -19224,7 +19231,7 @@
         <v>324</v>
       </c>
       <c r="G111" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>28</v>
@@ -19500,7 +19507,7 @@
         <v>48</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>28</v>
@@ -19770,7 +19777,7 @@
         <v>78</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>28</v>
@@ -20038,7 +20045,7 @@
         <v>341</v>
       </c>
       <c r="G117" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>25</v>
@@ -20136,7 +20143,7 @@
         <v>341</v>
       </c>
       <c r="G118" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>28</v>
@@ -20406,7 +20413,7 @@
         <v>24</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>28</v>
@@ -20645,7 +20652,7 @@
         <v>1586591103.3</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E122" t="s">
         <v>137</v>
@@ -20654,7 +20661,7 @@
         <v>138</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>25</v>
@@ -20777,7 +20784,7 @@
         <v>1586591103.3</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E123" t="s">
         <v>137</v>
@@ -20786,7 +20793,7 @@
         <v>138</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>28</v>
@@ -20920,7 +20927,7 @@
         <v>120</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>25</v>
@@ -21050,7 +21057,7 @@
         <v>120</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>28</v>
@@ -21316,7 +21323,7 @@
         <v>48</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="H127" s="22" t="s">
         <v>28</v>
@@ -21596,7 +21603,7 @@
         <v>372</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>28</v>
@@ -21876,7 +21883,7 @@
         <v>372</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>28</v>
@@ -22146,7 +22153,7 @@
         <v>24</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>28</v>
@@ -22278,7 +22285,7 @@
         <v>138</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>25</v>
@@ -22410,7 +22417,7 @@
         <v>138</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>28</v>
@@ -22675,7 +22682,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>58</v>
@@ -22813,7 +22820,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>58</v>
@@ -22822,7 +22829,7 @@
         <v>126</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="H138" s="22" t="s">
         <v>28</v>
@@ -23374,7 +23381,7 @@
         <v>48</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="H142" s="26" t="s">
         <v>407</v>
@@ -23512,7 +23519,7 @@
         <v>48</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="H143" s="26" t="s">
         <v>409</v>
@@ -23650,7 +23657,7 @@
         <v>48</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="H144" s="26" t="s">
         <v>411</v>
@@ -23788,7 +23795,7 @@
         <v>78</v>
       </c>
       <c r="G145" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="H145" s="22" t="s">
         <v>25</v>
@@ -23926,7 +23933,7 @@
         <v>78</v>
       </c>
       <c r="G146" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="H146" s="22" t="s">
         <v>28</v>
@@ -24066,7 +24073,7 @@
         <v>114</v>
       </c>
       <c r="G147" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="H147" s="22" t="s">
         <v>25</v>
@@ -24200,7 +24207,7 @@
         <v>114</v>
       </c>
       <c r="G148" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>28</v>
@@ -24472,7 +24479,7 @@
         <v>48</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="H150" s="22" t="s">
         <v>28</v>
@@ -24740,7 +24747,7 @@
         <v>428</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="H152" s="22" t="s">
         <v>140</v>
@@ -24868,7 +24875,7 @@
         <v>428</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="H153" s="22" t="s">
         <v>140</v>
@@ -24998,7 +25005,7 @@
         <v>428</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="H154" s="22" t="s">
         <v>140</v>
@@ -25258,7 +25265,7 @@
         <v>209</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="H156" s="22" t="s">
         <v>28</v>
@@ -25390,7 +25397,7 @@
         <v>120</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="H157" s="22" t="s">
         <v>25</v>
@@ -25522,7 +25529,7 @@
         <v>120</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="H158" s="22" t="s">
         <v>28</v>
@@ -25639,7 +25646,7 @@
         <v>444</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C159" s="11">
         <v>191618646.94999999</v>
@@ -25779,7 +25786,7 @@
         <v>444</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C160" s="11">
         <v>191618646.94999999</v>
@@ -25794,7 +25801,7 @@
         <v>209</v>
       </c>
       <c r="G160" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="H160" s="22" t="s">
         <v>28</v>
@@ -25934,7 +25941,7 @@
         <v>120</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="H161" s="22" t="s">
         <v>25</v>
@@ -26062,7 +26069,7 @@
         <v>120</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>28</v>
@@ -26324,7 +26331,7 @@
         <v>85</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="H164" s="22" t="s">
         <v>28</v>
@@ -26458,7 +26465,7 @@
         <v>254</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="H165" s="22" t="s">
         <v>25</v>
@@ -26590,7 +26597,7 @@
         <v>254</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="H166" s="22" t="s">
         <v>28</v>
@@ -26854,7 +26861,7 @@
         <v>24</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H168" s="22" t="s">
         <v>28</v>
@@ -27394,7 +27401,7 @@
         <v>78</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="H172" s="22" t="s">
         <v>28</v>
@@ -27517,7 +27524,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>58</v>
@@ -27643,7 +27650,7 @@
         <v>250174277.93000001</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>58</v>
@@ -27652,7 +27659,7 @@
         <v>59</v>
       </c>
       <c r="G174" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="H174" s="22" t="s">
         <v>28</v>
@@ -27910,7 +27917,7 @@
         <v>142</v>
       </c>
       <c r="G176" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="H176" s="22" t="s">
         <v>28</v>
@@ -28180,7 +28187,7 @@
         <v>254</v>
       </c>
       <c r="G178" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="H178" s="22" t="s">
         <v>25</v>
@@ -28312,7 +28319,7 @@
         <v>254</v>
       </c>
       <c r="G179" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="H179" s="22" t="s">
         <v>25</v>
@@ -28444,7 +28451,7 @@
         <v>120</v>
       </c>
       <c r="G180" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="H180" s="22" t="s">
         <v>25</v>
@@ -28582,7 +28589,7 @@
         <v>120</v>
       </c>
       <c r="G181" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="H181" s="22" t="s">
         <v>28</v>
@@ -28858,7 +28865,7 @@
         <v>372</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="H183" s="22" t="s">
         <v>28</v>
@@ -29412,7 +29419,7 @@
         <v>324</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="H187" s="22" t="s">
         <v>28</v>
@@ -29552,7 +29559,7 @@
         <v>254</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="H188" s="22" t="s">
         <v>25</v>
@@ -29686,7 +29693,7 @@
         <v>254</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>28</v>
@@ -29818,7 +29825,7 @@
         <v>120</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="H190" s="22" t="s">
         <v>35</v>
@@ -29946,7 +29953,7 @@
         <v>120</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="H191" s="22" t="s">
         <v>140</v>
@@ -30332,7 +30339,7 @@
         <v>209</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="H194" s="22" t="s">
         <v>28</v>
@@ -30464,7 +30471,7 @@
         <v>254</v>
       </c>
       <c r="G195" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="H195" s="22" t="s">
         <v>25</v>
@@ -30596,7 +30603,7 @@
         <v>254</v>
       </c>
       <c r="G196" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="H196" s="22" t="s">
         <v>28</v>
@@ -30866,7 +30873,7 @@
         <v>372</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="H198" s="22" t="s">
         <v>28</v>
@@ -31140,7 +31147,7 @@
         <v>98</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="H200" s="22" t="s">
         <v>28</v>
@@ -31272,7 +31279,7 @@
         <v>209</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="H201" s="22" t="s">
         <v>25</v>
@@ -31404,7 +31411,7 @@
         <v>209</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="H202" s="22" t="s">
         <v>28</v>
@@ -31668,7 +31675,7 @@
         <v>142</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="H204" s="22" t="s">
         <v>28</v>
@@ -31932,7 +31939,7 @@
         <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="H206" s="22" t="s">
         <v>140</v>
@@ -32064,7 +32071,7 @@
         <v>120</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="H207" s="22" t="s">
         <v>43</v>
@@ -32324,7 +32331,7 @@
         <v>142</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="H209" s="22" t="s">
         <v>28</v>
@@ -32456,7 +32463,7 @@
         <v>114</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="H210" s="22" t="s">
         <v>25</v>
@@ -32588,7 +32595,7 @@
         <v>114</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="H211" s="22" t="s">
         <v>28</v>
@@ -32722,7 +32729,7 @@
         <v>142</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="H212" s="22" t="s">
         <v>140</v>
@@ -32856,7 +32863,7 @@
         <v>311</v>
       </c>
       <c r="G213" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="H213" s="22" t="s">
         <v>143</v>
@@ -32988,7 +32995,7 @@
         <v>311</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="H214" s="22" t="s">
         <v>43</v>
@@ -33256,7 +33263,7 @@
         <v>573</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="H216" s="22" t="s">
         <v>43</v>
@@ -33394,7 +33401,7 @@
         <v>573</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="H217" s="22" t="s">
         <v>43</v>
@@ -33523,7 +33530,7 @@
         <v>365961395.01999998</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E218" t="s">
         <v>137</v>
@@ -33532,7 +33539,7 @@
         <v>138</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="H218" s="22" t="s">
         <v>25</v>
@@ -33655,7 +33662,7 @@
         <v>365961395.01999998</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E219" t="s">
         <v>137</v>
@@ -33664,7 +33671,7 @@
         <v>138</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="H219" s="22" t="s">
         <v>28</v>
@@ -33815,8 +33822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CFFDB-1765-1946-A5CD-678844AE2468}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A219" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33831,10 +33838,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -33845,7 +33852,7 @@
         <v>582</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -33856,7 +33863,7 @@
         <v>583</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -33867,7 +33874,7 @@
         <v>584</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -33878,7 +33885,7 @@
         <v>585</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -33889,7 +33896,7 @@
         <v>586</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -33900,7 +33907,7 @@
         <v>587</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -33911,7 +33918,7 @@
         <v>588</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -33922,7 +33929,7 @@
         <v>589</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -33933,7 +33940,7 @@
         <v>590</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -33944,7 +33951,7 @@
         <v>591</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -33955,7 +33962,7 @@
         <v>592</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -33966,7 +33973,7 @@
         <v>593</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -33977,7 +33984,7 @@
         <v>594</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -33988,7 +33995,7 @@
         <v>595</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -33999,7 +34006,7 @@
         <v>596</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -34010,7 +34017,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -34021,7 +34028,7 @@
         <v>598</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -34032,7 +34039,7 @@
         <v>599</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -34043,7 +34050,7 @@
         <v>600</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -34054,7 +34061,7 @@
         <v>601</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -34065,7 +34072,7 @@
         <v>602</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -34076,7 +34083,7 @@
         <v>603</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -34087,7 +34094,7 @@
         <v>604</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -34098,7 +34105,7 @@
         <v>605</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -34109,7 +34116,7 @@
         <v>606</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -34120,7 +34127,7 @@
         <v>607</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -34131,7 +34138,7 @@
         <v>608</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -34142,7 +34149,7 @@
         <v>609</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -34153,7 +34160,7 @@
         <v>610</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -34164,7 +34171,7 @@
         <v>611</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -34175,7 +34182,7 @@
         <v>612</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -34186,7 +34193,7 @@
         <v>613</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -34197,40 +34204,40 @@
         <v>614</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>866</v>
+      <c r="A35" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>615</v>
+        <v>1318</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>866</v>
+      <c r="A36" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>616</v>
+        <v>1319</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>866</v>
+      <c r="A37" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>617</v>
+        <v>1320</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -34238,10 +34245,10 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -34249,10 +34256,10 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -34260,10 +34267,10 @@
         <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -34271,10 +34278,10 @@
         <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -34282,10 +34289,10 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -34293,10 +34300,10 @@
         <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -34304,10 +34311,10 @@
         <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -34315,10 +34322,10 @@
         <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -34326,10 +34333,10 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -34337,10 +34344,10 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -34348,10 +34355,10 @@
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -34359,10 +34366,10 @@
         <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -34370,10 +34377,10 @@
         <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -34381,10 +34388,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -34392,10 +34399,10 @@
         <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -34403,10 +34410,10 @@
         <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -34414,10 +34421,10 @@
         <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -34425,10 +34432,10 @@
         <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -34436,10 +34443,10 @@
         <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -34447,10 +34454,10 @@
         <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -34458,10 +34465,10 @@
         <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -34469,10 +34476,10 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -34480,10 +34487,10 @@
         <v>161</v>
       </c>
       <c r="B60" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -34491,10 +34498,10 @@
         <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -34502,10 +34509,10 @@
         <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -34513,10 +34520,10 @@
         <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -34524,10 +34531,10 @@
         <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -34535,10 +34542,10 @@
         <v>175</v>
       </c>
       <c r="B65" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -34546,10 +34553,10 @@
         <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -34557,10 +34564,10 @@
         <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -34568,10 +34575,10 @@
         <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -34579,10 +34586,10 @@
         <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -34590,10 +34597,10 @@
         <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -34601,10 +34608,10 @@
         <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -34612,10 +34619,10 @@
         <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -34623,10 +34630,10 @@
         <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -34634,10 +34641,10 @@
         <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -34645,10 +34652,10 @@
         <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -34656,10 +34663,10 @@
         <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -34667,10 +34674,10 @@
         <v>196</v>
       </c>
       <c r="B77" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -34678,10 +34685,10 @@
         <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -34689,10 +34696,10 @@
         <v>196</v>
       </c>
       <c r="B79" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -34700,10 +34707,10 @@
         <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -34711,10 +34718,10 @@
         <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -34722,10 +34729,10 @@
         <v>200</v>
       </c>
       <c r="B82" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -34733,10 +34740,10 @@
         <v>205</v>
       </c>
       <c r="B83" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -34744,10 +34751,10 @@
         <v>205</v>
       </c>
       <c r="B84" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -34755,10 +34762,10 @@
         <v>205</v>
       </c>
       <c r="B85" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -34766,10 +34773,10 @@
         <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -34777,10 +34784,10 @@
         <v>214</v>
       </c>
       <c r="B87" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -34788,10 +34795,10 @@
         <v>214</v>
       </c>
       <c r="B88" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -34799,10 +34806,10 @@
         <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -34810,10 +34817,10 @@
         <v>222</v>
       </c>
       <c r="B90" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -34821,10 +34828,10 @@
         <v>222</v>
       </c>
       <c r="B91" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -34832,10 +34839,10 @@
         <v>225</v>
       </c>
       <c r="B92" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -34843,10 +34850,10 @@
         <v>225</v>
       </c>
       <c r="B93" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -34854,10 +34861,10 @@
         <v>225</v>
       </c>
       <c r="B94" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -34865,10 +34872,10 @@
         <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -34876,10 +34883,10 @@
         <v>230</v>
       </c>
       <c r="B96" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -34887,10 +34894,10 @@
         <v>230</v>
       </c>
       <c r="B97" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -34898,10 +34905,10 @@
         <v>235</v>
       </c>
       <c r="B98" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -34909,10 +34916,10 @@
         <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -34920,10 +34927,10 @@
         <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -34931,10 +34938,10 @@
         <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -34942,10 +34949,10 @@
         <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -34953,10 +34960,10 @@
         <v>239</v>
       </c>
       <c r="B103" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -34964,10 +34971,10 @@
         <v>244</v>
       </c>
       <c r="B104" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -34975,10 +34982,10 @@
         <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -34986,10 +34993,10 @@
         <v>244</v>
       </c>
       <c r="B106" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -34997,10 +35004,10 @@
         <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -35008,10 +35015,10 @@
         <v>250</v>
       </c>
       <c r="B108" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -35019,10 +35026,10 @@
         <v>250</v>
       </c>
       <c r="B109" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -35030,10 +35037,10 @@
         <v>260</v>
       </c>
       <c r="B110" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -35041,10 +35048,10 @@
         <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -35052,10 +35059,10 @@
         <v>260</v>
       </c>
       <c r="B112" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -35063,10 +35070,10 @@
         <v>263</v>
       </c>
       <c r="B113" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -35074,10 +35081,10 @@
         <v>263</v>
       </c>
       <c r="B114" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -35085,10 +35092,10 @@
         <v>263</v>
       </c>
       <c r="B115" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -35096,10 +35103,10 @@
         <v>267</v>
       </c>
       <c r="B116" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -35107,10 +35114,10 @@
         <v>267</v>
       </c>
       <c r="B117" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -35118,10 +35125,10 @@
         <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -35129,10 +35136,10 @@
         <v>273</v>
       </c>
       <c r="B119" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -35140,10 +35147,10 @@
         <v>273</v>
       </c>
       <c r="B120" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -35151,10 +35158,10 @@
         <v>273</v>
       </c>
       <c r="B121" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -35162,10 +35169,10 @@
         <v>280</v>
       </c>
       <c r="B122" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -35173,10 +35180,10 @@
         <v>280</v>
       </c>
       <c r="B123" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -35184,10 +35191,10 @@
         <v>280</v>
       </c>
       <c r="B124" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -35195,10 +35202,10 @@
         <v>287</v>
       </c>
       <c r="B125" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -35206,10 +35213,10 @@
         <v>287</v>
       </c>
       <c r="B126" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -35217,10 +35224,10 @@
         <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -35228,10 +35235,10 @@
         <v>293</v>
       </c>
       <c r="B128" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -35239,10 +35246,10 @@
         <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -35250,10 +35257,10 @@
         <v>293</v>
       </c>
       <c r="B130" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -35261,10 +35268,10 @@
         <v>299</v>
       </c>
       <c r="B131" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -35272,10 +35279,10 @@
         <v>299</v>
       </c>
       <c r="B132" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -35283,10 +35290,10 @@
         <v>299</v>
       </c>
       <c r="B133" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -35294,10 +35301,10 @@
         <v>303</v>
       </c>
       <c r="B134" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C134" s="38" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -35305,10 +35312,10 @@
         <v>303</v>
       </c>
       <c r="B135" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -35316,10 +35323,10 @@
         <v>303</v>
       </c>
       <c r="B136" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C136" s="38" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -35327,10 +35334,10 @@
         <v>307</v>
       </c>
       <c r="B137" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -35338,10 +35345,10 @@
         <v>307</v>
       </c>
       <c r="B138" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -35349,10 +35356,10 @@
         <v>307</v>
       </c>
       <c r="B139" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -35360,10 +35367,10 @@
         <v>315</v>
       </c>
       <c r="B140" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -35371,10 +35378,10 @@
         <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -35382,10 +35389,10 @@
         <v>315</v>
       </c>
       <c r="B142" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C142" s="38" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -35393,10 +35400,10 @@
         <v>320</v>
       </c>
       <c r="B143" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -35404,10 +35411,10 @@
         <v>320</v>
       </c>
       <c r="B144" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -35415,10 +35422,10 @@
         <v>320</v>
       </c>
       <c r="B145" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -35426,10 +35433,10 @@
         <v>328</v>
       </c>
       <c r="B146" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C146" s="38" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -35437,10 +35444,10 @@
         <v>328</v>
       </c>
       <c r="B147" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -35448,10 +35455,10 @@
         <v>328</v>
       </c>
       <c r="B148" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C148" s="38" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -35459,10 +35466,10 @@
         <v>333</v>
       </c>
       <c r="B149" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -35470,10 +35477,10 @@
         <v>333</v>
       </c>
       <c r="B150" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -35481,10 +35488,10 @@
         <v>333</v>
       </c>
       <c r="B151" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C151" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -35492,10 +35499,10 @@
         <v>337</v>
       </c>
       <c r="B152" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -35503,10 +35510,10 @@
         <v>337</v>
       </c>
       <c r="B153" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -35514,10 +35521,10 @@
         <v>337</v>
       </c>
       <c r="B154" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -35525,10 +35532,10 @@
         <v>345</v>
       </c>
       <c r="B155" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -35536,10 +35543,10 @@
         <v>345</v>
       </c>
       <c r="B156" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -35547,10 +35554,10 @@
         <v>345</v>
       </c>
       <c r="B157" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -35558,10 +35565,10 @@
         <v>350</v>
       </c>
       <c r="B158" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -35569,10 +35576,10 @@
         <v>350</v>
       </c>
       <c r="B159" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -35580,10 +35587,10 @@
         <v>350</v>
       </c>
       <c r="B160" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -35591,10 +35598,10 @@
         <v>354</v>
       </c>
       <c r="B161" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -35602,10 +35609,10 @@
         <v>354</v>
       </c>
       <c r="B162" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -35613,10 +35620,10 @@
         <v>354</v>
       </c>
       <c r="B163" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -35624,10 +35631,10 @@
         <v>358</v>
       </c>
       <c r="B164" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -35635,10 +35642,10 @@
         <v>358</v>
       </c>
       <c r="B165" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -35646,10 +35653,10 @@
         <v>358</v>
       </c>
       <c r="B166" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -35657,10 +35664,10 @@
         <v>363</v>
       </c>
       <c r="B167" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -35668,10 +35675,10 @@
         <v>363</v>
       </c>
       <c r="B168" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -35679,10 +35686,10 @@
         <v>363</v>
       </c>
       <c r="B169" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -35690,10 +35697,10 @@
         <v>369</v>
       </c>
       <c r="B170" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -35701,10 +35708,10 @@
         <v>369</v>
       </c>
       <c r="B171" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C171" s="38" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -35712,10 +35719,10 @@
         <v>369</v>
       </c>
       <c r="B172" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -35723,10 +35730,10 @@
         <v>379</v>
       </c>
       <c r="B173" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -35734,10 +35741,10 @@
         <v>379</v>
       </c>
       <c r="B174" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -35745,43 +35752,43 @@
         <v>379</v>
       </c>
       <c r="B175" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B176" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B177" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B178" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -35789,10 +35796,10 @@
         <v>388</v>
       </c>
       <c r="B179" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -35800,10 +35807,10 @@
         <v>388</v>
       </c>
       <c r="B180" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -35811,10 +35818,10 @@
         <v>388</v>
       </c>
       <c r="B181" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -35822,10 +35829,10 @@
         <v>392</v>
       </c>
       <c r="B182" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -35833,10 +35840,10 @@
         <v>392</v>
       </c>
       <c r="B183" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -35844,10 +35851,10 @@
         <v>392</v>
       </c>
       <c r="B184" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C184" s="38" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -35855,10 +35862,10 @@
         <v>396</v>
       </c>
       <c r="B185" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -35866,10 +35873,10 @@
         <v>396</v>
       </c>
       <c r="B186" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -35877,10 +35884,10 @@
         <v>396</v>
       </c>
       <c r="B187" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -35888,10 +35895,10 @@
         <v>413</v>
       </c>
       <c r="B188" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -35899,10 +35906,10 @@
         <v>413</v>
       </c>
       <c r="B189" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -35910,10 +35917,10 @@
         <v>413</v>
       </c>
       <c r="B190" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -35921,10 +35928,10 @@
         <v>419</v>
       </c>
       <c r="B191" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -35932,10 +35939,10 @@
         <v>419</v>
       </c>
       <c r="B192" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -35943,10 +35950,10 @@
         <v>419</v>
       </c>
       <c r="B193" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -35954,10 +35961,10 @@
         <v>424</v>
       </c>
       <c r="B194" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -35965,10 +35972,10 @@
         <v>424</v>
       </c>
       <c r="B195" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -35976,10 +35983,10 @@
         <v>424</v>
       </c>
       <c r="B196" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -35987,10 +35994,10 @@
         <v>433</v>
       </c>
       <c r="B197" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C197" s="38" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -35998,10 +36005,10 @@
         <v>433</v>
       </c>
       <c r="B198" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C198" s="38" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -36009,10 +36016,10 @@
         <v>433</v>
       </c>
       <c r="B199" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -36020,10 +36027,10 @@
         <v>439</v>
       </c>
       <c r="B200" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C200" s="38" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -36031,10 +36038,10 @@
         <v>439</v>
       </c>
       <c r="B201" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C201" s="38" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -36042,10 +36049,10 @@
         <v>439</v>
       </c>
       <c r="B202" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -36053,10 +36060,10 @@
         <v>444</v>
       </c>
       <c r="B203" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C203" s="38" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -36064,10 +36071,10 @@
         <v>444</v>
       </c>
       <c r="B204" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C204" s="38" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -36075,10 +36082,10 @@
         <v>444</v>
       </c>
       <c r="B205" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C205" s="38" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -36086,10 +36093,10 @@
         <v>448</v>
       </c>
       <c r="B206" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -36097,10 +36104,10 @@
         <v>448</v>
       </c>
       <c r="B207" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C207" s="38" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -36108,10 +36115,10 @@
         <v>448</v>
       </c>
       <c r="B208" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C208" s="38" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -36119,10 +36126,10 @@
         <v>452</v>
       </c>
       <c r="B209" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -36130,10 +36137,10 @@
         <v>452</v>
       </c>
       <c r="B210" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -36141,10 +36148,10 @@
         <v>452</v>
       </c>
       <c r="B211" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C211" s="38" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -36152,10 +36159,10 @@
         <v>456</v>
       </c>
       <c r="B212" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -36163,10 +36170,10 @@
         <v>456</v>
       </c>
       <c r="B213" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C213" s="38" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -36174,10 +36181,10 @@
         <v>456</v>
       </c>
       <c r="B214" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C214" s="38" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -36185,10 +36192,10 @@
         <v>460</v>
       </c>
       <c r="B215" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -36196,10 +36203,10 @@
         <v>460</v>
       </c>
       <c r="B216" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C216" s="38" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -36207,10 +36214,10 @@
         <v>460</v>
       </c>
       <c r="B217" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C217" s="38" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -36218,10 +36225,10 @@
         <v>464</v>
       </c>
       <c r="B218" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C218" s="38" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -36229,10 +36236,10 @@
         <v>464</v>
       </c>
       <c r="B219" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -36240,10 +36247,10 @@
         <v>464</v>
       </c>
       <c r="B220" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -36251,10 +36258,10 @@
         <v>473</v>
       </c>
       <c r="B221" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -36262,10 +36269,10 @@
         <v>473</v>
       </c>
       <c r="B222" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -36273,10 +36280,10 @@
         <v>473</v>
       </c>
       <c r="B223" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -36284,10 +36291,10 @@
         <v>477</v>
       </c>
       <c r="B224" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -36295,10 +36302,10 @@
         <v>477</v>
       </c>
       <c r="B225" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -36306,10 +36313,10 @@
         <v>477</v>
       </c>
       <c r="B226" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -36317,10 +36324,10 @@
         <v>481</v>
       </c>
       <c r="B227" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -36328,10 +36335,10 @@
         <v>481</v>
       </c>
       <c r="B228" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -36339,10 +36346,10 @@
         <v>481</v>
       </c>
       <c r="B229" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -36350,10 +36357,10 @@
         <v>484</v>
       </c>
       <c r="B230" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -36361,10 +36368,10 @@
         <v>484</v>
       </c>
       <c r="B231" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -36372,10 +36379,10 @@
         <v>484</v>
       </c>
       <c r="B232" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -36383,10 +36390,10 @@
         <v>490</v>
       </c>
       <c r="B233" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -36394,10 +36401,10 @@
         <v>490</v>
       </c>
       <c r="B234" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -36405,10 +36412,10 @@
         <v>490</v>
       </c>
       <c r="B235" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -36416,10 +36423,10 @@
         <v>495</v>
       </c>
       <c r="B236" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C236" s="38" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -36427,10 +36434,10 @@
         <v>495</v>
       </c>
       <c r="B237" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C237" s="38" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -36438,10 +36445,10 @@
         <v>495</v>
       </c>
       <c r="B238" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -36449,10 +36456,10 @@
         <v>499</v>
       </c>
       <c r="B239" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C239" s="38" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -36460,10 +36467,10 @@
         <v>499</v>
       </c>
       <c r="B240" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C240" s="38" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -36471,43 +36478,43 @@
         <v>499</v>
       </c>
       <c r="B241" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C241" s="38" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B242" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C242" s="38" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B243" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C243" s="38" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B244" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C244" s="38" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -36515,10 +36522,10 @@
         <v>512</v>
       </c>
       <c r="B245" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C245" s="38" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -36526,10 +36533,10 @@
         <v>512</v>
       </c>
       <c r="B246" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C246" s="38" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -36537,10 +36544,10 @@
         <v>512</v>
       </c>
       <c r="B247" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C247" s="38" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -36548,10 +36555,10 @@
         <v>517</v>
       </c>
       <c r="B248" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C248" s="38" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -36559,10 +36566,10 @@
         <v>517</v>
       </c>
       <c r="B249" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C249" s="38" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -36570,10 +36577,10 @@
         <v>517</v>
       </c>
       <c r="B250" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C250" s="38" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -36581,10 +36588,10 @@
         <v>523</v>
       </c>
       <c r="B251" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C251" s="38" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -36592,10 +36599,10 @@
         <v>523</v>
       </c>
       <c r="B252" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -36603,10 +36610,10 @@
         <v>523</v>
       </c>
       <c r="B253" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -36614,10 +36621,10 @@
         <v>528</v>
       </c>
       <c r="B254" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -36625,10 +36632,10 @@
         <v>528</v>
       </c>
       <c r="B255" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -36636,10 +36643,10 @@
         <v>528</v>
       </c>
       <c r="B256" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C256" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -36647,10 +36654,10 @@
         <v>532</v>
       </c>
       <c r="B257" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C257" s="38" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -36658,10 +36665,10 @@
         <v>532</v>
       </c>
       <c r="B258" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C258" s="38" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -36669,10 +36676,10 @@
         <v>532</v>
       </c>
       <c r="B259" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C259" s="38" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -36680,10 +36687,10 @@
         <v>536</v>
       </c>
       <c r="B260" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C260" s="38" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -36691,10 +36698,10 @@
         <v>536</v>
       </c>
       <c r="B261" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C261" s="38" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -36702,10 +36709,10 @@
         <v>536</v>
       </c>
       <c r="B262" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C262" s="38" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -36713,10 +36720,10 @@
         <v>542</v>
       </c>
       <c r="B263" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C263" s="38" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -36724,10 +36731,10 @@
         <v>542</v>
       </c>
       <c r="B264" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C264" s="38" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -36735,10 +36742,10 @@
         <v>542</v>
       </c>
       <c r="B265" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C265" s="38" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -36746,10 +36753,10 @@
         <v>546</v>
       </c>
       <c r="B266" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C266" s="38" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -36757,10 +36764,10 @@
         <v>546</v>
       </c>
       <c r="B267" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C267" s="38" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -36768,10 +36775,10 @@
         <v>546</v>
       </c>
       <c r="B268" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -36779,10 +36786,10 @@
         <v>551</v>
       </c>
       <c r="B269" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C269" s="38" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -36790,10 +36797,10 @@
         <v>551</v>
       </c>
       <c r="B270" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C270" s="38" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -36801,10 +36808,10 @@
         <v>551</v>
       </c>
       <c r="B271" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C271" s="38" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -36812,10 +36819,10 @@
         <v>557</v>
       </c>
       <c r="B272" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C272" s="38" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -36823,10 +36830,10 @@
         <v>557</v>
       </c>
       <c r="B273" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C273" s="38" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -36834,10 +36841,10 @@
         <v>557</v>
       </c>
       <c r="B274" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C274" s="38" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -36845,10 +36852,10 @@
         <v>561</v>
       </c>
       <c r="B275" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C275" s="38" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -36856,10 +36863,10 @@
         <v>561</v>
       </c>
       <c r="B276" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C276" s="38" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -36867,10 +36874,10 @@
         <v>561</v>
       </c>
       <c r="B277" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C277" s="38" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -36878,10 +36885,10 @@
         <v>566</v>
       </c>
       <c r="B278" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C278" s="38" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -36889,10 +36896,10 @@
         <v>566</v>
       </c>
       <c r="B279" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C279" s="38" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -36900,10 +36907,10 @@
         <v>566</v>
       </c>
       <c r="B280" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C280" s="38" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -36911,10 +36918,10 @@
         <v>578</v>
       </c>
       <c r="B281" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C281" s="38" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -36922,10 +36929,10 @@
         <v>578</v>
       </c>
       <c r="B282" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C282" s="38" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -36933,10 +36940,10 @@
         <v>578</v>
       </c>
       <c r="B283" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C283" s="38" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw data/raw data.xlsx
+++ b/data/raw data/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/GitHub/drug_pricing/data/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BDDAA9-55E4-154D-8E30-CC970913E546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B30FEB-D7C7-C94F-A400-4C4985EDB3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4545,7 +4545,7 @@
   <dimension ref="A1:AV221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33822,8 +33822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CFFDB-1765-1946-A5CD-678844AE2468}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36956,7 +36956,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/raw data/raw data.xlsx
+++ b/data/raw data/raw data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/GitHub/drug_pricing/data/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B30FEB-D7C7-C94F-A400-4C4985EDB3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84FA16A-53AB-3A45-8832-CC24D108B3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="2" r:id="rId1"/>
@@ -4544,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664423AB-EE62-394B-8A7E-D514EB2406D8}">
   <dimension ref="A1:AV221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33822,8 +33822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CFFDB-1765-1946-A5CD-678844AE2468}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/raw data/raw data.xlsx
+++ b/data/raw data/raw data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/GitHub/drug_pricing/data/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84FA16A-53AB-3A45-8832-CC24D108B3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB532A2-B887-084A-9F3B-3F114B3BC7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="2" r:id="rId1"/>
@@ -4544,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664423AB-EE62-394B-8A7E-D514EB2406D8}">
   <dimension ref="A1:AV221"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="H97" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="V119" sqref="V119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33822,8 +33822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CFFDB-1765-1946-A5CD-678844AE2468}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A127" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/raw data/raw data.xlsx
+++ b/data/raw data/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/GitHub/drug_pricing/data/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA635ECB-B125-7744-8D88-8CE6FB59BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B562DF-183B-3746-8341-2D2FBB66604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="1322">
   <si>
     <t>categories</t>
   </si>
@@ -1120,9 +1120,6 @@
     <t>Otezla 2</t>
   </si>
   <si>
-    <t>Ozempic (Rybelsus)</t>
-  </si>
-  <si>
     <t>Semaglutide</t>
   </si>
   <si>
@@ -1135,21 +1132,6 @@
     <t>Ozempic</t>
   </si>
   <si>
-    <t>Ozempic (Rybelsus) 1</t>
-  </si>
-  <si>
-    <t>Ozempic (Rybelsus) 2</t>
-  </si>
-  <si>
-    <t>Rybelsus (Semaglutide oral)</t>
-  </si>
-  <si>
-    <t>Ozempic (Rybelsus) 3</t>
-  </si>
-  <si>
-    <t>Ozempic (Rybelsus) 4</t>
-  </si>
-  <si>
     <t>Perjeta</t>
   </si>
   <si>
@@ -2197,15 +2179,6 @@
     <t>Otezla Ex-US</t>
   </si>
   <si>
-    <t>Ozempic (Rybelsus) WW</t>
-  </si>
-  <si>
-    <t>Ozempic (Rybelsus) US</t>
-  </si>
-  <si>
-    <t>Ozempic (Rybelsus) Ex-US</t>
-  </si>
-  <si>
     <t>Perjeta WW</t>
   </si>
   <si>
@@ -2980,15 +2953,6 @@
     <t>Otezla1-Otezla2</t>
   </si>
   <si>
-    <t>Ozempic(Rybelsus)1+Ozempic(Rybelsus)2</t>
-  </si>
-  <si>
-    <t>Ozempic(Rybelsus)2+Ozempic(Rybelsus)4</t>
-  </si>
-  <si>
-    <t>Ozempic(Rybelsus)1+Ozempic(Rybelsus)2-Ozempic(Rybelsus)2+Ozempic(Rybelsus)4</t>
-  </si>
-  <si>
     <t>Perjeta1</t>
   </si>
   <si>
@@ -3646,9 +3610,6 @@
     <t>Ozempic  US</t>
   </si>
   <si>
-    <t>Rybelsus (Semaglutide oral)  US</t>
-  </si>
-  <si>
     <t>Perjeta  US</t>
   </si>
   <si>
@@ -3994,10 +3955,52 @@
     <t>Vyndaqel_Vyndamax1-Vyndaqel_Vyndamax2</t>
   </si>
   <si>
-    <t>Tradjenta3*Tradjenta1+Tradjenta2*Tradjenta3/Tradjenta2</t>
-  </si>
-  <si>
-    <t>Tradjenta1+Tradjenta2-Tradjenta3*Tradjenta1+Tradjenta2*Tradjenta3/Tradjenta2</t>
+    <t>Ozempic [Rybelsus]</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus 1</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus 2</t>
+  </si>
+  <si>
+    <t>Rybelsus Semaglutide oral</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus 3</t>
+  </si>
+  <si>
+    <t>Rybelsus Semaglutide oral  US</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus 4</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus WW</t>
+  </si>
+  <si>
+    <t>OzempicRybelsus1+OzempicRybelsus2</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus US</t>
+  </si>
+  <si>
+    <t>OzempicRybelsus2+OzempicRybelsus4</t>
+  </si>
+  <si>
+    <t>Ozempic Rybelsus Ex-US</t>
+  </si>
+  <si>
+    <t>OzempicRybelsus1+OzempicRybelsus2-OzempicRybelsus2+OzempicRybelsus4</t>
+  </si>
+  <si>
+    <t>(Tradjenta1+Tradjenta2)*(Tradjenta3/Tradjenta2)</t>
+  </si>
+  <si>
+    <t>(Tradjenta1+Tradjenta2)-(Tradjenta1+Tradjenta2)*(Tradjenta3/Tradjenta2)</t>
   </si>
 </sst>
 </file>
@@ -4544,8 +4547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664423AB-EE62-394B-8A7E-D514EB2406D8}">
   <dimension ref="A1:AV221"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I179" sqref="I179"/>
+    <sheetView topLeftCell="A117" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4596,100 +4599,100 @@
         <v>19</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>1078</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>1079</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Z1" s="39" t="s">
         <v>1085</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="AA1" s="39" t="s">
         <v>1086</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="AB1" s="39" t="s">
         <v>1087</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="AC1" s="39" t="s">
         <v>1088</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="AD1" s="39" t="s">
         <v>1089</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="AE1" s="39" t="s">
         <v>1090</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="AF1" s="39" t="s">
         <v>1091</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="AG1" s="39" t="s">
         <v>1092</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="AH1" s="39" t="s">
         <v>1093</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="AI1" s="39" t="s">
         <v>1094</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>1095</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="AK1" s="39" t="s">
         <v>1096</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="AL1" s="39" t="s">
         <v>1097</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AM1" s="39" t="s">
         <v>1098</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AN1" s="39" t="s">
         <v>1099</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AO1" s="39" t="s">
         <v>1100</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AP1" s="39" t="s">
         <v>1101</v>
       </c>
-      <c r="AE1" s="39" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AF1" s="39" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AG1" s="39" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AH1" s="39" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AI1" s="39" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AJ1" s="39" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AK1" s="39" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AL1" s="39" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AM1" s="39" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AN1" s="39" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AO1" s="39" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AP1" s="39" t="s">
-        <v>1113</v>
-      </c>
       <c r="AQ1" s="39" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="AR1" s="39" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="AS1" s="39" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="AT1" s="12"/>
       <c r="AU1" s="12"/>
@@ -4847,7 +4850,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>28</v>
@@ -5111,7 +5114,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>40</v>
@@ -5243,7 +5246,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>43</v>
@@ -5360,7 +5363,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="C7" s="11">
         <v>206176301.19</v>
@@ -5375,7 +5378,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>25</v>
@@ -5498,7 +5501,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="C8" s="11">
         <v>206176301.19</v>
@@ -5513,7 +5516,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>28</v>
@@ -5907,7 +5910,7 @@
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>28</v>
@@ -6031,7 +6034,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>25</v>
@@ -6163,7 +6166,7 @@
         <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>28</v>
@@ -6295,7 +6298,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>25</v>
@@ -6429,7 +6432,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>28</v>
@@ -6695,7 +6698,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>28</v>
@@ -6961,7 +6964,7 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>28</v>
@@ -7231,7 +7234,7 @@
         <v>85</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>28</v>
@@ -7501,7 +7504,7 @@
         <v>98</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>28</v>
@@ -7617,10 +7620,10 @@
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="C24" s="10">
         <v>389831480.56</v>
@@ -7641,7 +7644,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>42</v>
@@ -7757,10 +7760,10 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="C25" s="10">
         <v>389831480.56</v>
@@ -7775,13 +7778,13 @@
         <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>105</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>42</v>
@@ -7891,10 +7894,10 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="C26" s="10">
         <v>389831480.56</v>
@@ -7909,13 +7912,13 @@
         <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>42</v>
@@ -8043,7 +8046,7 @@
         <v>110</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>25</v>
@@ -8175,7 +8178,7 @@
         <v>110</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>28</v>
@@ -8309,7 +8312,7 @@
         <v>116</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>25</v>
@@ -8449,7 +8452,7 @@
         <v>116</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>28</v>
@@ -8995,7 +8998,7 @@
         <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>28</v>
@@ -9112,7 +9115,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E35" t="s">
         <v>133</v>
@@ -9121,7 +9124,7 @@
         <v>134</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>35</v>
@@ -9250,7 +9253,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E36" t="s">
         <v>133</v>
@@ -9259,7 +9262,7 @@
         <v>134</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>136</v>
@@ -9388,7 +9391,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E37" t="s">
         <v>133</v>
@@ -9397,7 +9400,7 @@
         <v>138</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>139</v>
@@ -9522,7 +9525,7 @@
         <v>9936069813.7000008</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E38" t="s">
         <v>133</v>
@@ -9531,7 +9534,7 @@
         <v>138</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>43</v>
@@ -9665,7 +9668,7 @@
         <v>110</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>25</v>
@@ -9797,7 +9800,7 @@
         <v>110</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>28</v>
@@ -10059,7 +10062,7 @@
         <v>150</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>28</v>
@@ -10189,7 +10192,7 @@
         <v>116</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>25</v>
@@ -10317,7 +10320,7 @@
         <v>116</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>28</v>
@@ -10577,7 +10580,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>28</v>
@@ -10841,7 +10844,7 @@
         <v>33</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>136</v>
@@ -11103,7 +11106,7 @@
         <v>122</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>43</v>
@@ -11232,7 +11235,7 @@
         <v>736787563.51999998</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E51" t="s">
         <v>84</v>
@@ -11366,7 +11369,7 @@
         <v>736787563.51999998</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E52" t="s">
         <v>84</v>
@@ -11375,7 +11378,7 @@
         <v>85</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>28</v>
@@ -11643,7 +11646,7 @@
         <v>85</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>28</v>
@@ -11907,7 +11910,7 @@
         <v>150</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>28</v>
@@ -12169,7 +12172,7 @@
         <v>73</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>28</v>
@@ -12301,7 +12304,7 @@
         <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>25</v>
@@ -12435,7 +12438,7 @@
         <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>28</v>
@@ -12701,7 +12704,7 @@
         <v>138</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>28</v>
@@ -12965,7 +12968,7 @@
         <v>205</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>136</v>
@@ -13097,7 +13100,7 @@
         <v>116</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>139</v>
@@ -13225,7 +13228,7 @@
         <v>116</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>43</v>
@@ -13487,7 +13490,7 @@
         <v>85</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="H68" s="22" t="s">
         <v>28</v>
@@ -13753,7 +13756,7 @@
         <v>78</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>28</v>
@@ -14157,7 +14160,7 @@
         <v>138</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>28</v>
@@ -14273,7 +14276,7 @@
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B74" t="s">
         <v>230</v>
@@ -14291,13 +14294,13 @@
         <v>116</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="H74" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="J74" s="26" t="s">
         <v>42</v>
@@ -14405,7 +14408,7 @@
     </row>
     <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B75" t="s">
         <v>230</v>
@@ -14423,13 +14426,13 @@
         <v>116</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="J75" s="26" t="s">
         <v>42</v>
@@ -14555,7 +14558,7 @@
         <v>116</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>25</v>
@@ -14683,7 +14686,7 @@
         <v>116</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="H77" s="22" t="s">
         <v>28</v>
@@ -14949,7 +14952,7 @@
         <v>239</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>28</v>
@@ -15087,7 +15090,7 @@
         <v>246</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>35</v>
@@ -15221,7 +15224,7 @@
         <v>246</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>136</v>
@@ -15355,7 +15358,7 @@
         <v>249</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="H82" s="22" t="s">
         <v>139</v>
@@ -15493,7 +15496,7 @@
         <v>249</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="H83" s="22" t="s">
         <v>43</v>
@@ -15616,7 +15619,7 @@
         <v>252</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="C84" s="10">
         <v>175822575.58000001</v>
@@ -15748,7 +15751,7 @@
         <v>252</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="C85" s="10">
         <v>175822575.58000001</v>
@@ -15763,7 +15766,7 @@
         <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="H85" s="22" t="s">
         <v>28</v>
@@ -15895,7 +15898,7 @@
         <v>39</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="H86" s="22" t="s">
         <v>25</v>
@@ -16033,7 +16036,7 @@
         <v>39</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>28</v>
@@ -16309,7 +16312,7 @@
         <v>48</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="H89" s="22" t="s">
         <v>28</v>
@@ -16447,7 +16450,7 @@
         <v>269</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="H90" s="22" t="s">
         <v>25</v>
@@ -16573,7 +16576,7 @@
         <v>269</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>28</v>
@@ -16699,7 +16702,7 @@
         <v>275</v>
       </c>
       <c r="G92" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="H92" s="22" t="s">
         <v>25</v>
@@ -16837,7 +16840,7 @@
         <v>275</v>
       </c>
       <c r="G93" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="H93" s="22" t="s">
         <v>28</v>
@@ -16975,7 +16978,7 @@
         <v>275</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="H94" s="22" t="s">
         <v>28</v>
@@ -17245,7 +17248,7 @@
         <v>205</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="H96" s="22" t="s">
         <v>28</v>
@@ -17511,7 +17514,7 @@
         <v>85</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="H98" s="22" t="s">
         <v>136</v>
@@ -17645,7 +17648,7 @@
         <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="H99" s="22" t="s">
         <v>139</v>
@@ -17777,7 +17780,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="H100" s="22" t="s">
         <v>43</v>
@@ -17909,7 +17912,7 @@
         <v>205</v>
       </c>
       <c r="G101" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="H101" s="22" t="s">
         <v>25</v>
@@ -18041,7 +18044,7 @@
         <v>205</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="H102" s="22" t="s">
         <v>28</v>
@@ -18164,7 +18167,7 @@
         <v>342150557.68000001</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>58</v>
@@ -18292,7 +18295,7 @@
         <v>342150557.68000001</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>58</v>
@@ -18301,7 +18304,7 @@
         <v>59</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="H104" s="22" t="s">
         <v>28</v>
@@ -18559,7 +18562,7 @@
         <v>303</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>28</v>
@@ -18823,7 +18826,7 @@
         <v>150</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>28</v>
@@ -19093,7 +19096,7 @@
         <v>316</v>
       </c>
       <c r="G110" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>28</v>
@@ -19231,7 +19234,7 @@
         <v>316</v>
       </c>
       <c r="G111" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>28</v>
@@ -19507,7 +19510,7 @@
         <v>48</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>28</v>
@@ -19777,7 +19780,7 @@
         <v>78</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>28</v>
@@ -20047,7 +20050,7 @@
         <v>333</v>
       </c>
       <c r="G117" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>25</v>
@@ -20145,7 +20148,7 @@
         <v>333</v>
       </c>
       <c r="G118" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>28</v>
@@ -20415,7 +20418,7 @@
         <v>24</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>28</v>
@@ -20654,7 +20657,7 @@
         <v>1586591103.3</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E122" t="s">
         <v>133</v>
@@ -20663,7 +20666,7 @@
         <v>134</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>25</v>
@@ -20786,7 +20789,7 @@
         <v>1586591103.3</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E123" t="s">
         <v>133</v>
@@ -20795,7 +20798,7 @@
         <v>134</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>28</v>
@@ -20929,7 +20932,7 @@
         <v>116</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>25</v>
@@ -21059,7 +21062,7 @@
         <v>116</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>28</v>
@@ -21325,7 +21328,7 @@
         <v>48</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="H127" s="22" t="s">
         <v>28</v>
@@ -21447,31 +21450,31 @@
     </row>
     <row r="128" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="C128" s="10">
         <v>1529256675.7099998</v>
       </c>
       <c r="D128" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F128" s="3" t="s">
+      <c r="G128" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="H128" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I128" s="22" t="s">
-        <v>366</v>
+        <v>1308</v>
       </c>
       <c r="J128" s="23" t="s">
         <v>4</v>
@@ -21587,31 +21590,31 @@
     </row>
     <row r="129" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="C129" s="10">
         <v>1529256675.7099998</v>
       </c>
       <c r="D129" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G129" s="4" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I129" s="22" t="s">
-        <v>367</v>
+        <v>1309</v>
       </c>
       <c r="J129" s="23" t="s">
         <v>4</v>
@@ -21727,31 +21730,31 @@
     </row>
     <row r="130" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="C130" s="10">
         <v>1529256675.7099998</v>
       </c>
       <c r="D130" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G130" s="4" t="s">
-        <v>368</v>
+        <v>1310</v>
       </c>
       <c r="H130" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I130" s="22" t="s">
-        <v>369</v>
+        <v>1311</v>
       </c>
       <c r="J130" s="23" t="s">
         <v>4</v>
@@ -21867,31 +21870,31 @@
     </row>
     <row r="131" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="C131" s="10">
         <v>1529256675.7099998</v>
       </c>
       <c r="D131" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G131" s="4" t="s">
-        <v>1203</v>
+        <v>1312</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I131" s="22" t="s">
-        <v>370</v>
+        <v>1313</v>
       </c>
       <c r="J131" s="23" t="s">
         <v>4</v>
@@ -22005,10 +22008,10 @@
     </row>
     <row r="132" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B132" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C132" s="8">
         <v>303275857.83999997</v>
@@ -22023,13 +22026,13 @@
         <v>24</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H132" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I132" s="22" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J132" s="23" t="s">
         <v>3</v>
@@ -22137,10 +22140,10 @@
     </row>
     <row r="133" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C133" s="8">
         <v>303275857.83999997</v>
@@ -22155,13 +22158,13 @@
         <v>24</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I133" s="22" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J133" s="23" t="s">
         <v>3</v>
@@ -22269,10 +22272,10 @@
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="B134" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C134" s="8">
         <v>1453860766.5</v>
@@ -22287,13 +22290,13 @@
         <v>134</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I134" s="22" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="J134" s="26" t="s">
         <v>42</v>
@@ -22401,10 +22404,10 @@
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="B135" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C135" s="8">
         <v>1453860766.5</v>
@@ -22419,13 +22422,13 @@
         <v>134</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I135" s="22" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="J135" s="26" t="s">
         <v>42</v>
@@ -22535,31 +22538,31 @@
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B136" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C136" s="8">
         <v>599577174.57000005</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>344</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H136" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I136" s="22" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J136" s="26" t="s">
         <v>2</v>
@@ -22675,16 +22678,16 @@
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C137" s="10">
         <v>250174277.93000001</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>58</v>
@@ -22693,13 +22696,13 @@
         <v>122</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H137" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I137" s="22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J137" s="26" t="s">
         <v>42</v>
@@ -22813,16 +22816,16 @@
     </row>
     <row r="138" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C138" s="10">
         <v>250174277.93000001</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>58</v>
@@ -22831,13 +22834,13 @@
         <v>122</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="H138" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I138" s="22" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J138" s="26" t="s">
         <v>42</v>
@@ -22951,10 +22954,10 @@
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B139" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C139" s="8">
         <v>1626844122.8</v>
@@ -22969,13 +22972,13 @@
         <v>48</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H139" s="26" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="J139" s="26" t="s">
         <v>42</v>
@@ -23089,10 +23092,10 @@
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B140" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C140" s="8">
         <v>1626844122.8</v>
@@ -23107,13 +23110,13 @@
         <v>48</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H140" s="26" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="J140" s="26" t="s">
         <v>42</v>
@@ -23227,10 +23230,10 @@
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B141" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C141" s="8">
         <v>1626844122.8</v>
@@ -23245,13 +23248,13 @@
         <v>48</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H141" s="26" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="J141" s="26" t="s">
         <v>42</v>
@@ -23365,10 +23368,10 @@
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B142" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C142" s="8">
         <v>1626844122.8</v>
@@ -23383,13 +23386,13 @@
         <v>48</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="H142" s="26" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="J142" s="26" t="s">
         <v>42</v>
@@ -23503,10 +23506,10 @@
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B143" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C143" s="8">
         <v>1626844122.8</v>
@@ -23521,13 +23524,13 @@
         <v>48</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="H143" s="26" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="J143" s="26" t="s">
         <v>42</v>
@@ -23641,10 +23644,10 @@
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B144" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C144" s="8">
         <v>1626844122.8</v>
@@ -23659,13 +23662,13 @@
         <v>48</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="H144" s="26" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="J144" s="26" t="s">
         <v>42</v>
@@ -23779,7 +23782,7 @@
     </row>
     <row r="145" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B145" t="s">
         <v>193</v>
@@ -23791,19 +23794,19 @@
         <v>78</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G145" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="H145" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I145" s="22" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J145" s="23" t="s">
         <v>5</v>
@@ -23917,7 +23920,7 @@
     </row>
     <row r="146" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s">
         <v>193</v>
@@ -23929,19 +23932,19 @@
         <v>78</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G146" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="H146" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I146" s="22" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J146" s="23" t="s">
         <v>5</v>
@@ -24057,7 +24060,7 @@
     </row>
     <row r="147" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B147" t="s">
         <v>193</v>
@@ -24069,19 +24072,19 @@
         <v>78</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G147" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="H147" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I147" s="22" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J147" s="26" t="s">
         <v>42</v>
@@ -24191,7 +24194,7 @@
     </row>
     <row r="148" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B148" t="s">
         <v>193</v>
@@ -24203,19 +24206,19 @@
         <v>78</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G148" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I148" s="22" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J148" s="26" t="s">
         <v>42</v>
@@ -24325,10 +24328,10 @@
     </row>
     <row r="149" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C149" s="10">
         <v>390574112.48000002</v>
@@ -24343,13 +24346,13 @@
         <v>48</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H149" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I149" s="22" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J149" s="26" t="s">
         <v>42</v>
@@ -24463,10 +24466,10 @@
     </row>
     <row r="150" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C150" s="10">
         <v>390574112.48000002</v>
@@ -24481,13 +24484,13 @@
         <v>48</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="H150" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I150" s="22" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J150" s="26" t="s">
         <v>42</v>
@@ -24601,31 +24604,31 @@
     </row>
     <row r="151" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C151" s="10">
         <v>358159996.5</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H151" s="22" t="s">
         <v>35</v>
       </c>
       <c r="I151" s="22" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="J151" s="23" t="s">
         <v>6</v>
@@ -24731,31 +24734,31 @@
     </row>
     <row r="152" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C152" s="10">
         <v>358159996.5</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="H152" s="22" t="s">
         <v>136</v>
       </c>
       <c r="I152" s="22" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J152" s="23" t="s">
         <v>6</v>
@@ -24859,31 +24862,31 @@
     </row>
     <row r="153" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C153" s="10">
         <v>358159996.5</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="H153" s="22" t="s">
         <v>136</v>
       </c>
       <c r="I153" s="22" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J153" s="23" t="s">
         <v>6</v>
@@ -24989,31 +24992,31 @@
     </row>
     <row r="154" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C154" s="10">
         <v>358159996.5</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="H154" s="22" t="s">
         <v>136</v>
       </c>
       <c r="I154" s="22" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J154" s="23" t="s">
         <v>6</v>
@@ -25117,10 +25120,10 @@
     </row>
     <row r="155" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B155" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C155" s="8">
         <v>191260329.12</v>
@@ -25129,19 +25132,19 @@
         <v>204</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I155" s="22" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J155" s="26" t="s">
         <v>42</v>
@@ -25249,10 +25252,10 @@
     </row>
     <row r="156" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B156" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C156" s="8">
         <v>191260329.12</v>
@@ -25261,19 +25264,19 @@
         <v>204</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="H156" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I156" s="22" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J156" s="26" t="s">
         <v>42</v>
@@ -25381,16 +25384,16 @@
     </row>
     <row r="157" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B157" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C157" s="8">
         <v>359631479.33999997</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>116</v>
@@ -25399,13 +25402,13 @@
         <v>116</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="H157" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I157" s="22" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J157" s="26" t="s">
         <v>42</v>
@@ -25513,16 +25516,16 @@
     </row>
     <row r="158" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B158" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C158" s="8">
         <v>359631479.33999997</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>116</v>
@@ -25531,13 +25534,13 @@
         <v>116</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="H158" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I158" s="22" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J158" s="26" t="s">
         <v>42</v>
@@ -25645,31 +25648,31 @@
     </row>
     <row r="159" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="C159" s="11">
         <v>191618646.94999999</v>
       </c>
       <c r="D159" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E159" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G159" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H159" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I159" s="22" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="J159" s="26" t="s">
         <v>42</v>
@@ -25785,31 +25788,31 @@
     </row>
     <row r="160" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="C160" s="11">
         <v>191618646.94999999</v>
       </c>
       <c r="D160" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E160" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G160" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="H160" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I160" s="22" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="J160" s="26" t="s">
         <v>42</v>
@@ -25925,16 +25928,16 @@
     </row>
     <row r="161" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C161" s="10">
         <v>1106356248.4000001</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>116</v>
@@ -25943,13 +25946,13 @@
         <v>116</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="H161" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I161" s="22" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="J161" s="26" t="s">
         <v>42</v>
@@ -26053,16 +26056,16 @@
     </row>
     <row r="162" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C162" s="10">
         <v>1106356248.4000001</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>116</v>
@@ -26071,13 +26074,13 @@
         <v>116</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I162" s="22" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="J162" s="26" t="s">
         <v>42</v>
@@ -26181,10 +26184,10 @@
     </row>
     <row r="163" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C163" s="10">
         <v>793479171.97000003</v>
@@ -26199,13 +26202,13 @@
         <v>85</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H163" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I163" s="22" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J163" s="26" t="s">
         <v>42</v>
@@ -26315,10 +26318,10 @@
     </row>
     <row r="164" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C164" s="10">
         <v>793479171.97000003</v>
@@ -26333,13 +26336,13 @@
         <v>85</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="H164" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I164" s="22" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="J164" s="26" t="s">
         <v>42</v>
@@ -26449,10 +26452,10 @@
     </row>
     <row r="165" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C165" s="8">
         <v>269508507.33999997</v>
@@ -26467,13 +26470,13 @@
         <v>246</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="H165" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I165" s="22" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J165" s="26" t="s">
         <v>42</v>
@@ -26581,10 +26584,10 @@
     </row>
     <row r="166" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C166" s="8">
         <v>269508507.33999997</v>
@@ -26599,13 +26602,13 @@
         <v>246</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="H166" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I166" s="22" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J166" s="26" t="s">
         <v>42</v>
@@ -26713,10 +26716,10 @@
     </row>
     <row r="167" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B167" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C167" s="8">
         <v>624194083.88999999</v>
@@ -26731,13 +26734,13 @@
         <v>24</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H167" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I167" s="22" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J167" s="23" t="s">
         <v>3</v>
@@ -26845,10 +26848,10 @@
     </row>
     <row r="168" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B168" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C168" s="8">
         <v>624194083.88999999</v>
@@ -26863,13 +26866,13 @@
         <v>24</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="H168" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I168" s="22" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J168" s="23" t="s">
         <v>3</v>
@@ -26977,31 +26980,31 @@
     </row>
     <row r="169" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B169" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C169" s="8">
         <v>1054984601.4</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H169" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I169" s="22" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J169" s="26" t="s">
         <v>42</v>
@@ -27115,31 +27118,31 @@
     </row>
     <row r="170" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B170" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C170" s="8">
         <v>1054984601.4</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H170" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I170" s="22" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J170" s="26" t="s">
         <v>42</v>
@@ -27253,10 +27256,10 @@
     </row>
     <row r="171" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B171" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C171" s="8">
         <v>656037861.53999996</v>
@@ -27271,13 +27274,13 @@
         <v>78</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H171" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I171" s="22" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="J171" s="23" t="s">
         <v>5</v>
@@ -27385,10 +27388,10 @@
     </row>
     <row r="172" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B172" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C172" s="8">
         <v>656037861.53999996</v>
@@ -27403,13 +27406,13 @@
         <v>78</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="H172" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I172" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J172" s="23" t="s">
         <v>5</v>
@@ -27517,16 +27520,16 @@
     </row>
     <row r="173" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C173" s="10">
         <v>250174277.93000001</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>58</v>
@@ -27535,13 +27538,13 @@
         <v>59</v>
       </c>
       <c r="G173" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H173" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I173" s="22" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J173" s="26" t="s">
         <v>2</v>
@@ -27643,16 +27646,16 @@
     </row>
     <row r="174" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C174" s="10">
         <v>250174277.93000001</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>58</v>
@@ -27661,13 +27664,13 @@
         <v>59</v>
       </c>
       <c r="G174" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="H174" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I174" s="22" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="J174" s="26" t="s">
         <v>2</v>
@@ -27769,7 +27772,7 @@
     </row>
     <row r="175" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>197</v>
@@ -27787,13 +27790,13 @@
         <v>138</v>
       </c>
       <c r="G175" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H175" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I175" s="22" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J175" s="26" t="s">
         <v>42</v>
@@ -27901,7 +27904,7 @@
     </row>
     <row r="176" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>197</v>
@@ -27919,13 +27922,13 @@
         <v>138</v>
       </c>
       <c r="G176" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="H176" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I176" s="22" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J176" s="26" t="s">
         <v>42</v>
@@ -28033,10 +28036,10 @@
     </row>
     <row r="177" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C177" s="10">
         <v>1288663292.9000001</v>
@@ -28051,13 +28054,13 @@
         <v>344</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H177" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I177" s="22" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="J177" s="26" t="s">
         <v>2</v>
@@ -28171,10 +28174,10 @@
     </row>
     <row r="178" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C178" s="10">
         <v>1288663292.9000001</v>
@@ -28189,13 +28192,13 @@
         <v>246</v>
       </c>
       <c r="G178" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="H178" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I178" s="22" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J178" s="26" t="s">
         <v>42</v>
@@ -28303,10 +28306,10 @@
     </row>
     <row r="179" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C179" s="10">
         <v>1288663292.9000001</v>
@@ -28321,13 +28324,13 @@
         <v>246</v>
       </c>
       <c r="G179" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="H179" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I179" s="22" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J179" s="26" t="s">
         <v>42</v>
@@ -28435,31 +28438,31 @@
     </row>
     <row r="180" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C180" s="11">
         <v>167392577.77000001</v>
       </c>
       <c r="D180" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E180" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G180" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="H180" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I180" s="22" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J180" s="26" t="s">
         <v>42</v>
@@ -28573,31 +28576,31 @@
     </row>
     <row r="181" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C181" s="11">
         <v>167392577.77000001</v>
       </c>
       <c r="D181" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E181" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G181" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="H181" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I181" s="22" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="J181" s="26" t="s">
         <v>42</v>
@@ -28711,31 +28714,31 @@
     </row>
     <row r="182" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C182" s="10">
         <v>1500955685.1799998</v>
       </c>
       <c r="D182" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G182" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H182" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I182" s="22" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J182" s="23" t="s">
         <v>4</v>
@@ -28849,31 +28852,31 @@
     </row>
     <row r="183" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C183" s="10">
         <v>1500955685.1799998</v>
       </c>
       <c r="D183" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G183" s="4" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="H183" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I183" s="22" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="J183" s="23" t="s">
         <v>4</v>
@@ -28985,31 +28988,31 @@
     </row>
     <row r="184" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C184" s="11">
         <v>483827937.41000003</v>
       </c>
       <c r="D184" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E184" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G184" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H184" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I184" s="22" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="J184" s="26" t="s">
         <v>42</v>
@@ -29125,31 +29128,31 @@
     </row>
     <row r="185" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C185" s="11">
         <v>483827937.41000003</v>
       </c>
       <c r="D185" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G185" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H185" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I185" s="22" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J185" s="26" t="s">
         <v>42</v>
@@ -29265,10 +29268,10 @@
     </row>
     <row r="186" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="B186" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C186" s="8">
         <v>314974934.93000001</v>
@@ -29283,13 +29286,13 @@
         <v>316</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H186" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I186" s="22" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="J186" s="23" t="s">
         <v>4</v>
@@ -29403,10 +29406,10 @@
     </row>
     <row r="187" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="B187" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C187" s="8">
         <v>314974934.93000001</v>
@@ -29421,13 +29424,13 @@
         <v>316</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="H187" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I187" s="22" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="J187" s="23" t="s">
         <v>4</v>
@@ -29543,16 +29546,16 @@
     </row>
     <row r="188" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C188" s="10">
         <v>3284873061.9000001</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>245</v>
@@ -29561,13 +29564,13 @@
         <v>246</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="H188" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I188" s="22" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J188" s="26" t="s">
         <v>42</v>
@@ -29677,16 +29680,16 @@
     </row>
     <row r="189" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C189" s="10">
         <v>3284873061.9000001</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>245</v>
@@ -29695,13 +29698,13 @@
         <v>246</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I189" s="22" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J189" s="26" t="s">
         <v>42</v>
@@ -29809,10 +29812,10 @@
     </row>
     <row r="190" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C190" s="10">
         <v>540954175.59000003</v>
@@ -29827,13 +29830,13 @@
         <v>116</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="H190" s="22" t="s">
         <v>35</v>
       </c>
       <c r="I190" s="22" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J190" s="26" t="s">
         <v>42</v>
@@ -29937,10 +29940,10 @@
     </row>
     <row r="191" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C191" s="10">
         <v>540954175.59000003</v>
@@ -29955,13 +29958,13 @@
         <v>116</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="H191" s="22" t="s">
         <v>136</v>
       </c>
       <c r="I191" s="22" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="J191" s="26" t="s">
         <v>42</v>
@@ -30065,10 +30068,10 @@
     </row>
     <row r="192" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C192" s="10">
         <v>540954175.59000003</v>
@@ -30080,16 +30083,16 @@
         <v>116</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H192" s="22" t="s">
         <v>139</v>
       </c>
       <c r="I192" s="22" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J192" s="23" t="s">
         <v>6</v>
@@ -30191,10 +30194,10 @@
     </row>
     <row r="193" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C193" s="10">
         <v>570959838.51999998</v>
@@ -30209,13 +30212,13 @@
         <v>205</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H193" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I193" s="22" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J193" s="26" t="s">
         <v>42</v>
@@ -30323,10 +30326,10 @@
     </row>
     <row r="194" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C194" s="10">
         <v>570959838.51999998</v>
@@ -30341,13 +30344,13 @@
         <v>205</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="H194" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I194" s="22" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J194" s="26" t="s">
         <v>42</v>
@@ -30455,16 +30458,16 @@
     </row>
     <row r="195" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C195" s="10">
         <v>286188072.97000003</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>245</v>
@@ -30473,13 +30476,13 @@
         <v>246</v>
       </c>
       <c r="G195" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="H195" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I195" s="22" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J195" s="26" t="s">
         <v>42</v>
@@ -30587,16 +30590,16 @@
     </row>
     <row r="196" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C196" s="10">
         <v>286188072.97000003</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>245</v>
@@ -30605,13 +30608,13 @@
         <v>246</v>
       </c>
       <c r="G196" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="H196" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="J196" s="26" t="s">
         <v>42</v>
@@ -30719,31 +30722,31 @@
     </row>
     <row r="197" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C197" s="10">
         <v>1895291573.55</v>
       </c>
       <c r="D197" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E197" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G197" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H197" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I197" s="22" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J197" s="23" t="s">
         <v>4</v>
@@ -30857,31 +30860,31 @@
     </row>
     <row r="198" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C198" s="10">
         <v>1895291573.55</v>
       </c>
       <c r="D198" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E198" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="G198" s="4" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="H198" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I198" s="22" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J198" s="23" t="s">
         <v>4</v>
@@ -30997,16 +31000,16 @@
     </row>
     <row r="199" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B199" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C199" s="8">
         <v>709365914.73000002</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E199" s="21" t="s">
         <v>97</v>
@@ -31015,13 +31018,13 @@
         <v>98</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H199" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I199" s="22" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J199" s="26" t="s">
         <v>2</v>
@@ -31131,16 +31134,16 @@
     </row>
     <row r="200" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B200" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C200" s="8">
         <v>709365914.73000002</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E200" s="21" t="s">
         <v>97</v>
@@ -31149,13 +31152,13 @@
         <v>98</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="H200" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I200" s="22" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J200" s="26" t="s">
         <v>2</v>
@@ -31263,10 +31266,10 @@
     </row>
     <row r="201" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C201" s="10">
         <v>487495093.42000002</v>
@@ -31281,13 +31284,13 @@
         <v>205</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="H201" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I201" s="22" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J201" s="26" t="s">
         <v>42</v>
@@ -31395,10 +31398,10 @@
     </row>
     <row r="202" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C202" s="10">
         <v>487495093.42000002</v>
@@ -31413,13 +31416,13 @@
         <v>205</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="H202" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I202" s="22" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J202" s="26" t="s">
         <v>42</v>
@@ -31527,10 +31530,10 @@
     </row>
     <row r="203" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C203" s="10">
         <v>452902445.03999996</v>
@@ -31545,13 +31548,13 @@
         <v>138</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H203" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I203" s="22" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="J203" s="26" t="s">
         <v>42</v>
@@ -31659,10 +31662,10 @@
     </row>
     <row r="204" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C204" s="10">
         <v>452902445.03999996</v>
@@ -31677,13 +31680,13 @@
         <v>138</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="H204" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I204" s="22" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="J204" s="26" t="s">
         <v>42</v>
@@ -31791,16 +31794,16 @@
     </row>
     <row r="205" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C205" s="10">
         <v>4701314805</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>32</v>
@@ -31809,13 +31812,13 @@
         <v>33</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H205" s="22" t="s">
         <v>35</v>
       </c>
       <c r="I205" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="J205" s="26" t="s">
         <v>2</v>
@@ -31923,16 +31926,16 @@
     </row>
     <row r="206" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C206" s="10">
         <v>4701314805</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>32</v>
@@ -31941,13 +31944,13 @@
         <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="H206" s="22" t="s">
         <v>136</v>
       </c>
       <c r="I206" s="22" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="J206" s="26" t="s">
         <v>2</v>
@@ -32055,16 +32058,16 @@
     </row>
     <row r="207" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C207" s="10">
         <v>4701314805</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>116</v>
@@ -32073,13 +32076,13 @@
         <v>116</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="H207" s="22" t="s">
         <v>43</v>
       </c>
       <c r="I207" s="22" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="J207" s="26" t="s">
         <v>42</v>
@@ -32183,10 +32186,10 @@
     </row>
     <row r="208" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C208" s="10">
         <v>895788878.46000004</v>
@@ -32201,13 +32204,13 @@
         <v>138</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H208" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I208" s="22" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J208" s="26" t="s">
         <v>42</v>
@@ -32315,10 +32318,10 @@
     </row>
     <row r="209" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C209" s="10">
         <v>895788878.46000004</v>
@@ -32333,13 +32336,13 @@
         <v>138</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="H209" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I209" s="22" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J209" s="26" t="s">
         <v>42</v>
@@ -32447,16 +32450,16 @@
     </row>
     <row r="210" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B210" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C210" s="8">
         <v>177838282.74000001</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E210" s="21" t="s">
         <v>47</v>
@@ -32465,13 +32468,13 @@
         <v>110</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="H210" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I210" s="22" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J210" s="26" t="s">
         <v>42</v>
@@ -32579,16 +32582,16 @@
     </row>
     <row r="211" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B211" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C211" s="8">
         <v>177838282.74000001</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E211" s="21" t="s">
         <v>47</v>
@@ -32597,13 +32600,13 @@
         <v>110</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="H211" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I211" s="22" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="J211" s="26" t="s">
         <v>42</v>
@@ -32713,31 +32716,31 @@
     </row>
     <row r="212" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C212" s="8">
         <v>1968567948</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="H212" s="22" t="s">
         <v>136</v>
       </c>
       <c r="I212" s="22" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J212" s="26" t="s">
         <v>42</v>
@@ -32847,31 +32850,31 @@
     </row>
     <row r="213" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C213" s="8">
         <v>1968567948</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>303</v>
       </c>
       <c r="G213" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="H213" s="22" t="s">
         <v>139</v>
       </c>
       <c r="I213" s="22" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="J213" s="26" t="s">
         <v>6</v>
@@ -32979,31 +32982,31 @@
     </row>
     <row r="214" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C214" s="8">
         <v>1968567948</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>303</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="H214" s="22" t="s">
         <v>43</v>
       </c>
       <c r="I214" s="22" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="J214" s="26" t="s">
         <v>6</v>
@@ -33109,31 +33112,31 @@
     </row>
     <row r="215" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C215" s="8">
         <v>1968567948</v>
       </c>
       <c r="D215" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="E215" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G215" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="E215" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="H215" s="22" t="s">
         <v>139</v>
       </c>
       <c r="I215" s="22" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J215" s="26" t="s">
         <v>6</v>
@@ -33247,31 +33250,31 @@
     </row>
     <row r="216" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C216" s="8">
         <v>1968567948</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="H216" s="22" t="s">
         <v>43</v>
       </c>
       <c r="I216" s="22" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J216" s="26" t="s">
         <v>6</v>
@@ -33385,31 +33388,31 @@
     </row>
     <row r="217" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C217" s="8">
         <v>1968567948</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="H217" s="22" t="s">
         <v>43</v>
       </c>
       <c r="I217" s="22" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="J217" s="26" t="s">
         <v>42</v>
@@ -33523,16 +33526,16 @@
     </row>
     <row r="218" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B218" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C218" s="8">
         <v>365961395.01999998</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E218" t="s">
         <v>133</v>
@@ -33541,13 +33544,13 @@
         <v>134</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="H218" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I218" s="22" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="J218" s="26" t="s">
         <v>42</v>
@@ -33655,16 +33658,16 @@
     </row>
     <row r="219" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B219" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C219" s="8">
         <v>365961395.01999998</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="E219" t="s">
         <v>133</v>
@@ -33673,13 +33676,13 @@
         <v>134</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="H219" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="J219" s="26" t="s">
         <v>42</v>
@@ -33824,8 +33827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CFFDB-1765-1946-A5CD-678844AE2468}">
   <dimension ref="A1:C283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33841,10 +33844,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -33852,10 +33855,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -33863,10 +33866,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -33874,10 +33877,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -33885,10 +33888,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -33896,10 +33899,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -33907,10 +33910,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -33918,10 +33921,10 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -33929,10 +33932,10 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -33940,10 +33943,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -33951,10 +33954,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -33962,10 +33965,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -33973,10 +33976,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -33984,10 +33987,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -33995,10 +33998,10 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -34006,10 +34009,10 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -34017,10 +34020,10 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -34028,10 +34031,10 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -34039,10 +34042,10 @@
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -34050,10 +34053,10 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -34061,10 +34064,10 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -34072,10 +34075,10 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -34083,10 +34086,10 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -34094,10 +34097,10 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -34105,10 +34108,10 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -34116,10 +34119,10 @@
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -34127,10 +34130,10 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -34138,10 +34141,10 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -34149,10 +34152,10 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -34160,10 +34163,10 @@
         <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -34171,10 +34174,10 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -34182,10 +34185,10 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -34193,10 +34196,10 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -34204,43 +34207,43 @@
         <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="B35" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="40" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="B36" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="B37" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -34248,10 +34251,10 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -34259,10 +34262,10 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -34270,10 +34273,10 @@
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -34281,10 +34284,10 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -34292,10 +34295,10 @@
         <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -34303,10 +34306,10 @@
         <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -34314,10 +34317,10 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -34325,10 +34328,10 @@
         <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -34336,10 +34339,10 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -34347,10 +34350,10 @@
         <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -34358,10 +34361,10 @@
         <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -34369,10 +34372,10 @@
         <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -34380,10 +34383,10 @@
         <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -34391,10 +34394,10 @@
         <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -34402,10 +34405,10 @@
         <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -34413,10 +34416,10 @@
         <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -34424,10 +34427,10 @@
         <v>146</v>
       </c>
       <c r="B54" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -34435,10 +34438,10 @@
         <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -34446,10 +34449,10 @@
         <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -34457,10 +34460,10 @@
         <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -34468,10 +34471,10 @@
         <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -34479,10 +34482,10 @@
         <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -34490,10 +34493,10 @@
         <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -34501,10 +34504,10 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -34512,10 +34515,10 @@
         <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -34523,10 +34526,10 @@
         <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -34534,10 +34537,10 @@
         <v>163</v>
       </c>
       <c r="B64" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -34545,10 +34548,10 @@
         <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -34556,10 +34559,10 @@
         <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -34567,10 +34570,10 @@
         <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -34578,10 +34581,10 @@
         <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -34589,10 +34592,10 @@
         <v>176</v>
       </c>
       <c r="B69" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -34600,10 +34603,10 @@
         <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -34611,10 +34614,10 @@
         <v>182</v>
       </c>
       <c r="B71" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -34622,10 +34625,10 @@
         <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -34633,10 +34636,10 @@
         <v>182</v>
       </c>
       <c r="B73" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -34644,10 +34647,10 @@
         <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -34655,10 +34658,10 @@
         <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -34666,10 +34669,10 @@
         <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -34677,10 +34680,10 @@
         <v>192</v>
       </c>
       <c r="B77" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -34688,10 +34691,10 @@
         <v>192</v>
       </c>
       <c r="B78" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -34699,10 +34702,10 @@
         <v>192</v>
       </c>
       <c r="B79" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -34710,10 +34713,10 @@
         <v>196</v>
       </c>
       <c r="B80" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -34721,10 +34724,10 @@
         <v>196</v>
       </c>
       <c r="B81" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -34732,10 +34735,10 @@
         <v>196</v>
       </c>
       <c r="B82" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -34743,10 +34746,10 @@
         <v>201</v>
       </c>
       <c r="B83" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -34754,10 +34757,10 @@
         <v>201</v>
       </c>
       <c r="B84" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -34765,10 +34768,10 @@
         <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -34776,10 +34779,10 @@
         <v>210</v>
       </c>
       <c r="B86" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -34787,10 +34790,10 @@
         <v>210</v>
       </c>
       <c r="B87" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -34798,10 +34801,10 @@
         <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -34809,10 +34812,10 @@
         <v>217</v>
       </c>
       <c r="B89" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -34820,10 +34823,10 @@
         <v>217</v>
       </c>
       <c r="B90" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -34831,10 +34834,10 @@
         <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -34842,10 +34845,10 @@
         <v>220</v>
       </c>
       <c r="B92" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -34853,10 +34856,10 @@
         <v>220</v>
       </c>
       <c r="B93" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -34864,10 +34867,10 @@
         <v>220</v>
       </c>
       <c r="B94" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -34875,10 +34878,10 @@
         <v>225</v>
       </c>
       <c r="B95" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -34886,10 +34889,10 @@
         <v>225</v>
       </c>
       <c r="B96" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -34897,43 +34900,43 @@
         <v>225</v>
       </c>
       <c r="B97" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B98" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B99" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B100" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -34941,10 +34944,10 @@
         <v>231</v>
       </c>
       <c r="B101" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -34952,10 +34955,10 @@
         <v>231</v>
       </c>
       <c r="B102" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -34963,10 +34966,10 @@
         <v>231</v>
       </c>
       <c r="B103" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -34974,10 +34977,10 @@
         <v>236</v>
       </c>
       <c r="B104" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -34985,10 +34988,10 @@
         <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -34996,10 +34999,10 @@
         <v>236</v>
       </c>
       <c r="B106" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -35007,10 +35010,10 @@
         <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -35018,10 +35021,10 @@
         <v>242</v>
       </c>
       <c r="B108" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -35029,10 +35032,10 @@
         <v>242</v>
       </c>
       <c r="B109" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -35040,10 +35043,10 @@
         <v>252</v>
       </c>
       <c r="B110" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -35051,10 +35054,10 @@
         <v>252</v>
       </c>
       <c r="B111" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -35062,10 +35065,10 @@
         <v>252</v>
       </c>
       <c r="B112" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -35073,10 +35076,10 @@
         <v>255</v>
       </c>
       <c r="B113" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -35084,10 +35087,10 @@
         <v>255</v>
       </c>
       <c r="B114" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -35095,10 +35098,10 @@
         <v>255</v>
       </c>
       <c r="B115" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -35106,10 +35109,10 @@
         <v>259</v>
       </c>
       <c r="B116" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -35117,10 +35120,10 @@
         <v>259</v>
       </c>
       <c r="B117" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -35128,10 +35131,10 @@
         <v>259</v>
       </c>
       <c r="B118" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -35139,10 +35142,10 @@
         <v>265</v>
       </c>
       <c r="B119" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -35150,10 +35153,10 @@
         <v>265</v>
       </c>
       <c r="B120" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -35161,10 +35164,10 @@
         <v>265</v>
       </c>
       <c r="B121" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -35172,10 +35175,10 @@
         <v>272</v>
       </c>
       <c r="B122" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -35183,10 +35186,10 @@
         <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -35194,10 +35197,10 @@
         <v>272</v>
       </c>
       <c r="B124" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -35205,10 +35208,10 @@
         <v>279</v>
       </c>
       <c r="B125" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -35216,10 +35219,10 @@
         <v>279</v>
       </c>
       <c r="B126" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -35227,10 +35230,10 @@
         <v>279</v>
       </c>
       <c r="B127" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -35238,10 +35241,10 @@
         <v>285</v>
       </c>
       <c r="B128" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -35249,10 +35252,10 @@
         <v>285</v>
       </c>
       <c r="B129" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -35260,10 +35263,10 @@
         <v>285</v>
       </c>
       <c r="B130" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -35271,10 +35274,10 @@
         <v>291</v>
       </c>
       <c r="B131" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -35282,10 +35285,10 @@
         <v>291</v>
       </c>
       <c r="B132" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -35293,10 +35296,10 @@
         <v>291</v>
       </c>
       <c r="B133" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -35304,10 +35307,10 @@
         <v>295</v>
       </c>
       <c r="B134" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C134" s="38" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -35315,10 +35318,10 @@
         <v>295</v>
       </c>
       <c r="B135" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -35326,10 +35329,10 @@
         <v>295</v>
       </c>
       <c r="B136" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C136" s="38" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -35337,10 +35340,10 @@
         <v>299</v>
       </c>
       <c r="B137" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -35348,10 +35351,10 @@
         <v>299</v>
       </c>
       <c r="B138" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -35359,10 +35362,10 @@
         <v>299</v>
       </c>
       <c r="B139" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -35370,10 +35373,10 @@
         <v>307</v>
       </c>
       <c r="B140" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -35381,10 +35384,10 @@
         <v>307</v>
       </c>
       <c r="B141" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -35392,10 +35395,10 @@
         <v>307</v>
       </c>
       <c r="B142" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C142" s="38" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -35403,10 +35406,10 @@
         <v>312</v>
       </c>
       <c r="B143" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -35414,10 +35417,10 @@
         <v>312</v>
       </c>
       <c r="B144" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -35425,10 +35428,10 @@
         <v>312</v>
       </c>
       <c r="B145" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -35436,10 +35439,10 @@
         <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C146" s="38" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -35447,10 +35450,10 @@
         <v>320</v>
       </c>
       <c r="B147" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -35458,10 +35461,10 @@
         <v>320</v>
       </c>
       <c r="B148" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C148" s="38" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -35469,10 +35472,10 @@
         <v>325</v>
       </c>
       <c r="B149" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -35480,10 +35483,10 @@
         <v>325</v>
       </c>
       <c r="B150" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C150" s="38" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -35491,10 +35494,10 @@
         <v>325</v>
       </c>
       <c r="B151" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C151" s="38" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -35502,10 +35505,10 @@
         <v>329</v>
       </c>
       <c r="B152" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -35513,10 +35516,10 @@
         <v>329</v>
       </c>
       <c r="B153" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -35524,10 +35527,10 @@
         <v>329</v>
       </c>
       <c r="B154" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -35535,10 +35538,10 @@
         <v>337</v>
       </c>
       <c r="B155" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -35546,10 +35549,10 @@
         <v>337</v>
       </c>
       <c r="B156" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -35557,10 +35560,10 @@
         <v>337</v>
       </c>
       <c r="B157" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -35568,10 +35571,10 @@
         <v>342</v>
       </c>
       <c r="B158" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -35579,10 +35582,10 @@
         <v>342</v>
       </c>
       <c r="B159" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -35590,10 +35593,10 @@
         <v>342</v>
       </c>
       <c r="B160" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -35601,10 +35604,10 @@
         <v>346</v>
       </c>
       <c r="B161" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -35612,10 +35615,10 @@
         <v>346</v>
       </c>
       <c r="B162" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -35623,10 +35626,10 @@
         <v>346</v>
       </c>
       <c r="B163" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -35634,10 +35637,10 @@
         <v>350</v>
       </c>
       <c r="B164" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -35645,10 +35648,10 @@
         <v>350</v>
       </c>
       <c r="B165" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -35656,10 +35659,10 @@
         <v>350</v>
       </c>
       <c r="B166" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -35667,10 +35670,10 @@
         <v>355</v>
       </c>
       <c r="B167" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -35678,10 +35681,10 @@
         <v>355</v>
       </c>
       <c r="B168" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -35689,1264 +35692,1264 @@
         <v>355</v>
       </c>
       <c r="B169" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>361</v>
+        <v>1306</v>
       </c>
       <c r="B170" t="s">
-        <v>720</v>
+        <v>1314</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>981</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>361</v>
+        <v>1306</v>
       </c>
       <c r="B171" t="s">
-        <v>721</v>
+        <v>1316</v>
       </c>
       <c r="C171" s="38" t="s">
-        <v>982</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>361</v>
+        <v>1306</v>
       </c>
       <c r="B172" t="s">
-        <v>722</v>
+        <v>1318</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>983</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B173" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B174" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B175" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="B176" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="B177" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="B178" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B179" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B180" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B181" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B182" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B183" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B184" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="C184" s="38" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B185" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B186" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B187" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B188" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B189" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B190" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B191" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B192" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B193" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B194" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B195" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B196" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B197" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C197" s="38" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B198" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C198" s="38" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B199" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B200" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C200" s="38" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B201" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="C201" s="38" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B202" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B203" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C203" s="38" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B204" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="C204" s="38" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B205" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C205" s="38" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B206" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B207" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="C207" s="38" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B208" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C208" s="38" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B209" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B210" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B211" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C211" s="38" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B212" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B213" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C213" s="38" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B214" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C214" s="38" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B215" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B216" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C216" s="38" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B217" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="C217" s="38" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B218" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C218" s="38" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B219" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B220" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B221" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B222" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B223" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B224" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B225" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B226" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B227" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B228" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B229" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B230" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B231" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C231" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B232" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C232" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B233" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B234" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B235" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B236" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C236" s="38" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B237" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C237" s="38" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B238" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B239" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C239" s="38" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B240" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="C240" s="38" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B241" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C241" s="38" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="B242" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="C242" s="38" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="B243" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="C243" s="38" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="B244" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="C244" s="38" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B245" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="C245" s="38" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B246" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C246" s="38" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B247" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C247" s="38" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B248" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C248" s="38" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B249" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C249" s="38" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B250" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C250" s="38" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B251" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C251" s="38" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B252" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B253" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B254" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B255" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B256" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C256" s="38" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B257" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C257" s="38" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B258" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C258" s="38" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B259" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="C259" s="38" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B260" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="C260" s="38" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B261" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C261" s="38" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B262" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C262" s="38" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B263" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C263" s="38" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B264" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="C264" s="38" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B265" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C265" s="38" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B266" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="C266" s="38" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B267" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="C267" s="38" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B268" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B269" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C269" s="38" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B270" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C270" s="38" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B271" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C271" s="38" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B272" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C272" s="38" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B273" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C273" s="38" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B274" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="C274" s="38" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B275" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C275" s="38" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B276" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C276" s="38" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B277" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="C277" s="38" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B278" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C278" s="38" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B279" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C279" s="38" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B280" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C280" s="38" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B281" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C281" s="38" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B282" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C282" s="38" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B283" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C283" s="38" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
